--- a/Dataset_xlsx/symptoms2.xlsx
+++ b/Dataset_xlsx/symptoms2.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="chief_complaint_id" sheetId="1" r:id="rId1"/>
+    <sheet name="_id" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="999999"/>
 </workbook>
@@ -1551,11 +1551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/Dataset_xlsx/symptoms2.xlsx
+++ b/Dataset_xlsx/symptoms2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Progetto ICon\Dataset\Dataset_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\ICon\Dataset_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="chief_complaint_id" sheetId="1" r:id="rId1"/>
+    <sheet name="_id" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="999999"/>
 </workbook>
@@ -1551,9 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Dataset_xlsx/symptoms2.xlsx
+++ b/Dataset_xlsx/symptoms2.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="_id" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="401">
   <si>
     <t>_id</t>
   </si>
@@ -1210,6 +1210,18 @@
   </si>
   <si>
     <t>High blood sugar</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>Superiore</t>
+  </si>
+  <si>
+    <t>Generale</t>
+  </si>
+  <si>
+    <t>Inferiore</t>
   </si>
 </sst>
 </file>
@@ -1549,13 +1561,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D94" workbookViewId="0">
+      <selection activeCell="J390" sqref="J390"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1583,8 +1601,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1612,8 +1633,11 @@
       <c r="I2">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1638,8 +1662,11 @@
       <c r="I3">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1667,8 +1694,11 @@
       <c r="I4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1693,8 +1723,11 @@
       <c r="I5">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1710,8 +1743,11 @@
       <c r="I6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1727,8 +1763,11 @@
       <c r="I7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1756,8 +1795,11 @@
       <c r="I8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1782,8 +1824,11 @@
       <c r="I9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1808,8 +1853,11 @@
       <c r="I10">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1834,8 +1882,11 @@
       <c r="I11">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1860,8 +1911,11 @@
       <c r="I12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1889,8 +1943,11 @@
       <c r="I13">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1918,8 +1975,11 @@
       <c r="I14">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1944,8 +2004,11 @@
       <c r="I15">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1961,8 +2024,11 @@
       <c r="I16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1978,8 +2044,11 @@
       <c r="I17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1995,8 +2064,11 @@
       <c r="I18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2021,8 +2093,11 @@
       <c r="I19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2050,8 +2125,11 @@
       <c r="I20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -2067,8 +2145,11 @@
       <c r="I21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -2096,8 +2177,11 @@
       <c r="I22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>25</v>
       </c>
@@ -2113,8 +2197,11 @@
       <c r="I23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>26</v>
       </c>
@@ -2130,8 +2217,11 @@
       <c r="I24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -2156,8 +2246,11 @@
       <c r="I25">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30</v>
       </c>
@@ -2185,8 +2278,11 @@
       <c r="I26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>31</v>
       </c>
@@ -2211,8 +2307,11 @@
       <c r="I27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>32</v>
       </c>
@@ -2237,8 +2336,11 @@
       <c r="I28">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>33</v>
       </c>
@@ -2266,8 +2368,11 @@
       <c r="I29">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>36</v>
       </c>
@@ -2295,8 +2400,11 @@
       <c r="I30">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>37</v>
       </c>
@@ -2321,8 +2429,11 @@
       <c r="I31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>38</v>
       </c>
@@ -2350,8 +2461,11 @@
       <c r="I32">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -2367,8 +2481,11 @@
       <c r="I33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>40</v>
       </c>
@@ -2384,8 +2501,11 @@
       <c r="I34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -2413,8 +2533,11 @@
       <c r="I35">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>42</v>
       </c>
@@ -2442,8 +2565,11 @@
       <c r="I36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>43</v>
       </c>
@@ -2471,8 +2597,11 @@
       <c r="I37">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>44</v>
       </c>
@@ -2500,8 +2629,11 @@
       <c r="I38">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>45</v>
       </c>
@@ -2517,8 +2649,11 @@
       <c r="I39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>47</v>
       </c>
@@ -2546,8 +2681,11 @@
       <c r="I40">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>48</v>
       </c>
@@ -2575,8 +2713,11 @@
       <c r="I41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>49</v>
       </c>
@@ -2604,8 +2745,11 @@
       <c r="I42">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>50</v>
       </c>
@@ -2621,8 +2765,11 @@
       <c r="I43">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>51</v>
       </c>
@@ -2647,8 +2794,11 @@
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>52</v>
       </c>
@@ -2676,8 +2826,11 @@
       <c r="I45">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>53</v>
       </c>
@@ -2705,8 +2858,11 @@
       <c r="I46">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>54</v>
       </c>
@@ -2734,8 +2890,11 @@
       <c r="I47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>55</v>
       </c>
@@ -2763,8 +2922,11 @@
       <c r="I48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>56</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="I49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>57</v>
       </c>
@@ -2806,8 +2971,11 @@
       <c r="I50">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>58</v>
       </c>
@@ -2823,8 +2991,11 @@
       <c r="I51">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>59</v>
       </c>
@@ -2849,8 +3020,11 @@
       <c r="I52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>60</v>
       </c>
@@ -2875,8 +3049,11 @@
       <c r="I53">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>61</v>
       </c>
@@ -2901,8 +3078,11 @@
       <c r="I54">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>63</v>
       </c>
@@ -2918,8 +3098,11 @@
       <c r="I55">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>64</v>
       </c>
@@ -2947,8 +3130,11 @@
       <c r="I56">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>66</v>
       </c>
@@ -2976,8 +3162,11 @@
       <c r="I57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>67</v>
       </c>
@@ -3005,8 +3194,11 @@
       <c r="I58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>68</v>
       </c>
@@ -3034,8 +3226,11 @@
       <c r="I59">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>69</v>
       </c>
@@ -3051,8 +3246,11 @@
       <c r="I60">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>70</v>
       </c>
@@ -3080,8 +3278,11 @@
       <c r="I61">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>71</v>
       </c>
@@ -3106,8 +3307,11 @@
       <c r="I62">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>72</v>
       </c>
@@ -3123,8 +3327,11 @@
       <c r="I63">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>73</v>
       </c>
@@ -3140,8 +3347,11 @@
       <c r="I64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>76</v>
       </c>
@@ -3157,8 +3367,11 @@
       <c r="I65">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>77</v>
       </c>
@@ -3174,8 +3387,11 @@
       <c r="I66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>78</v>
       </c>
@@ -3191,8 +3407,11 @@
       <c r="I67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>79</v>
       </c>
@@ -3208,8 +3427,11 @@
       <c r="I68">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>80</v>
       </c>
@@ -3225,8 +3447,11 @@
       <c r="I69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>81</v>
       </c>
@@ -3242,8 +3467,11 @@
       <c r="I70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>82</v>
       </c>
@@ -3271,8 +3499,11 @@
       <c r="I71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>83</v>
       </c>
@@ -3297,8 +3528,11 @@
       <c r="I72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>84</v>
       </c>
@@ -3314,8 +3548,11 @@
       <c r="I73">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>85</v>
       </c>
@@ -3331,8 +3568,11 @@
       <c r="I74">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>86</v>
       </c>
@@ -3360,8 +3600,11 @@
       <c r="I75">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>88</v>
       </c>
@@ -3389,8 +3632,11 @@
       <c r="I76">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>89</v>
       </c>
@@ -3406,8 +3652,11 @@
       <c r="I77">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>90</v>
       </c>
@@ -3435,8 +3684,11 @@
       <c r="I78">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>91</v>
       </c>
@@ -3461,8 +3713,11 @@
       <c r="I79">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>92</v>
       </c>
@@ -3478,8 +3733,11 @@
       <c r="I80">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>93</v>
       </c>
@@ -3507,8 +3765,11 @@
       <c r="I81">
         <v>62</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>94</v>
       </c>
@@ -3536,8 +3797,11 @@
       <c r="I82">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>95</v>
       </c>
@@ -3562,8 +3826,11 @@
       <c r="I83">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>96</v>
       </c>
@@ -3579,8 +3846,11 @@
       <c r="I84">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>98</v>
       </c>
@@ -3596,8 +3866,11 @@
       <c r="I85">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>99</v>
       </c>
@@ -3613,8 +3886,11 @@
       <c r="I86">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>100</v>
       </c>
@@ -3630,8 +3906,11 @@
       <c r="I87">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>101</v>
       </c>
@@ -3647,8 +3926,11 @@
       <c r="I88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>102</v>
       </c>
@@ -3673,8 +3955,11 @@
       <c r="I89">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>103</v>
       </c>
@@ -3702,8 +3987,11 @@
       <c r="I90">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>104</v>
       </c>
@@ -3719,8 +4007,11 @@
       <c r="I91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>105</v>
       </c>
@@ -3748,8 +4039,11 @@
       <c r="I92">
         <v>56</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>106</v>
       </c>
@@ -3777,8 +4071,11 @@
       <c r="I93">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>107</v>
       </c>
@@ -3794,8 +4091,11 @@
       <c r="I94">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>108</v>
       </c>
@@ -3811,8 +4111,11 @@
       <c r="I95">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>109</v>
       </c>
@@ -3828,8 +4131,11 @@
       <c r="I96">
         <v>36</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>110</v>
       </c>
@@ -3845,8 +4151,11 @@
       <c r="I97">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>111</v>
       </c>
@@ -3862,8 +4171,11 @@
       <c r="I98">
         <v>36</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>112</v>
       </c>
@@ -3888,8 +4200,11 @@
       <c r="I99">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>113</v>
       </c>
@@ -3917,8 +4232,11 @@
       <c r="I100">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>114</v>
       </c>
@@ -3934,8 +4252,11 @@
       <c r="I101">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>115</v>
       </c>
@@ -3963,8 +4284,11 @@
       <c r="I102">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>116</v>
       </c>
@@ -3992,8 +4316,11 @@
       <c r="I103">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>117</v>
       </c>
@@ -4018,8 +4345,11 @@
       <c r="I104">
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>118</v>
       </c>
@@ -4035,8 +4365,11 @@
       <c r="I105">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>119</v>
       </c>
@@ -4061,8 +4394,11 @@
       <c r="I106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>120</v>
       </c>
@@ -4090,8 +4426,11 @@
       <c r="I107">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>121</v>
       </c>
@@ -4107,8 +4446,11 @@
       <c r="I108">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>122</v>
       </c>
@@ -4124,8 +4466,11 @@
       <c r="I109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>123</v>
       </c>
@@ -4141,8 +4486,11 @@
       <c r="I110">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>124</v>
       </c>
@@ -4158,8 +4506,11 @@
       <c r="I111">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>125</v>
       </c>
@@ -4184,8 +4535,11 @@
       <c r="I112">
         <v>62</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>126</v>
       </c>
@@ -4213,8 +4567,11 @@
       <c r="I113">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>127</v>
       </c>
@@ -4230,8 +4587,11 @@
       <c r="I114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>130</v>
       </c>
@@ -4256,8 +4616,11 @@
       <c r="I115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>131</v>
       </c>
@@ -4273,8 +4636,11 @@
       <c r="I116">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>132</v>
       </c>
@@ -4299,8 +4665,11 @@
       <c r="I117">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>133</v>
       </c>
@@ -4328,8 +4697,11 @@
       <c r="I118">
         <v>75</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>135</v>
       </c>
@@ -4357,8 +4729,11 @@
       <c r="I119">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>136</v>
       </c>
@@ -4386,8 +4761,11 @@
       <c r="I120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>138</v>
       </c>
@@ -4403,8 +4781,11 @@
       <c r="I121">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>139</v>
       </c>
@@ -4420,8 +4801,11 @@
       <c r="I122">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>140</v>
       </c>
@@ -4449,8 +4833,11 @@
       <c r="I123">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>141</v>
       </c>
@@ -4466,8 +4853,11 @@
       <c r="I124">
         <v>34</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>142</v>
       </c>
@@ -4486,8 +4876,11 @@
       <c r="I125">
         <v>34</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>143</v>
       </c>
@@ -4503,8 +4896,11 @@
       <c r="I126">
         <v>34</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>144</v>
       </c>
@@ -4520,8 +4916,11 @@
       <c r="I127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>145</v>
       </c>
@@ -4546,8 +4945,11 @@
       <c r="I128">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>146</v>
       </c>
@@ -4563,8 +4965,11 @@
       <c r="I129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>147</v>
       </c>
@@ -4580,8 +4985,11 @@
       <c r="I130">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>148</v>
       </c>
@@ -4597,8 +5005,11 @@
       <c r="I131">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>149</v>
       </c>
@@ -4614,8 +5025,11 @@
       <c r="I132">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>150</v>
       </c>
@@ -4631,8 +5045,11 @@
       <c r="I133">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>151</v>
       </c>
@@ -4648,8 +5065,11 @@
       <c r="I134">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>152</v>
       </c>
@@ -4665,8 +5085,11 @@
       <c r="I135">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>153</v>
       </c>
@@ -4682,8 +5105,11 @@
       <c r="I136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>154</v>
       </c>
@@ -4708,8 +5134,11 @@
       <c r="I137">
         <v>29</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>155</v>
       </c>
@@ -4734,8 +5163,11 @@
       <c r="I138">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>156</v>
       </c>
@@ -4751,8 +5183,11 @@
       <c r="I139">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>157</v>
       </c>
@@ -4768,8 +5203,11 @@
       <c r="I140">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>158</v>
       </c>
@@ -4794,8 +5232,11 @@
       <c r="I141">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>159</v>
       </c>
@@ -4811,8 +5252,11 @@
       <c r="I142">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>160</v>
       </c>
@@ -4828,8 +5272,11 @@
       <c r="I143">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>161</v>
       </c>
@@ -4845,8 +5292,11 @@
       <c r="I144">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>162</v>
       </c>
@@ -4862,8 +5312,11 @@
       <c r="I145">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>163</v>
       </c>
@@ -4888,8 +5341,11 @@
       <c r="I146">
         <v>56</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>164</v>
       </c>
@@ -4914,8 +5370,11 @@
       <c r="I147">
         <v>56</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>165</v>
       </c>
@@ -4943,8 +5402,11 @@
       <c r="I148">
         <v>59</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>166</v>
       </c>
@@ -4972,8 +5434,11 @@
       <c r="I149">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>167</v>
       </c>
@@ -4989,8 +5454,11 @@
       <c r="I150">
         <v>26</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>168</v>
       </c>
@@ -5018,8 +5486,11 @@
       <c r="I151">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>170</v>
       </c>
@@ -5035,8 +5506,11 @@
       <c r="I152">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>179</v>
       </c>
@@ -5061,8 +5535,11 @@
       <c r="I153">
         <v>29</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>180</v>
       </c>
@@ -5090,8 +5567,11 @@
       <c r="I154">
         <v>34</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>182</v>
       </c>
@@ -5107,8 +5587,11 @@
       <c r="I155">
         <v>35</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>184</v>
       </c>
@@ -5136,8 +5619,11 @@
       <c r="I156">
         <v>47</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>185</v>
       </c>
@@ -5165,8 +5651,11 @@
       <c r="I157">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>188</v>
       </c>
@@ -5191,8 +5680,11 @@
       <c r="I158">
         <v>29</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>189</v>
       </c>
@@ -5208,8 +5700,11 @@
       <c r="I159">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>192</v>
       </c>
@@ -5225,8 +5720,11 @@
       <c r="I160">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>193</v>
       </c>
@@ -5254,8 +5752,11 @@
       <c r="I161">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>195</v>
       </c>
@@ -5271,8 +5772,11 @@
       <c r="I162">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>196</v>
       </c>
@@ -5288,8 +5792,11 @@
       <c r="I163">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>200</v>
       </c>
@@ -5317,8 +5824,11 @@
       <c r="I164">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>203</v>
       </c>
@@ -5334,8 +5844,11 @@
       <c r="I165">
         <v>29</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>204</v>
       </c>
@@ -5360,8 +5873,11 @@
       <c r="I166">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>205</v>
       </c>
@@ -5377,8 +5893,11 @@
       <c r="I167">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>206</v>
       </c>
@@ -5394,8 +5913,11 @@
       <c r="I168">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>207</v>
       </c>
@@ -5423,8 +5945,11 @@
       <c r="I169">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>208</v>
       </c>
@@ -5440,8 +5965,11 @@
       <c r="I170">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>209</v>
       </c>
@@ -5457,8 +5985,11 @@
       <c r="I171">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>210</v>
       </c>
@@ -5474,8 +6005,11 @@
       <c r="I172">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>212</v>
       </c>
@@ -5491,8 +6025,11 @@
       <c r="I173">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>213</v>
       </c>
@@ -5517,8 +6054,11 @@
       <c r="I174">
         <v>26</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>214</v>
       </c>
@@ -5534,8 +6074,11 @@
       <c r="I175">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>215</v>
       </c>
@@ -5551,8 +6094,11 @@
       <c r="I176">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>217</v>
       </c>
@@ -5568,8 +6114,11 @@
       <c r="I177">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>218</v>
       </c>
@@ -5585,8 +6134,11 @@
       <c r="I178">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>219</v>
       </c>
@@ -5602,8 +6154,11 @@
       <c r="I179">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>220</v>
       </c>
@@ -5619,8 +6174,11 @@
       <c r="I180">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>221</v>
       </c>
@@ -5636,8 +6194,11 @@
       <c r="I181">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>222</v>
       </c>
@@ -5653,8 +6214,11 @@
       <c r="I182">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>223</v>
       </c>
@@ -5670,8 +6234,11 @@
       <c r="I183">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>224</v>
       </c>
@@ -5687,8 +6254,11 @@
       <c r="I184">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>225</v>
       </c>
@@ -5704,8 +6274,11 @@
       <c r="I185">
         <v>24</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>226</v>
       </c>
@@ -5721,8 +6294,11 @@
       <c r="I186">
         <v>24</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>227</v>
       </c>
@@ -5738,8 +6314,11 @@
       <c r="I187">
         <v>24</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>228</v>
       </c>
@@ -5755,8 +6334,11 @@
       <c r="I188">
         <v>24</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>229</v>
       </c>
@@ -5772,8 +6354,11 @@
       <c r="I189">
         <v>34</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>230</v>
       </c>
@@ -5789,8 +6374,11 @@
       <c r="I190">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>234</v>
       </c>
@@ -5815,8 +6403,11 @@
       <c r="I191">
         <v>56</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>235</v>
       </c>
@@ -5832,8 +6423,11 @@
       <c r="I192">
         <v>27</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>466</v>
       </c>
@@ -5849,8 +6443,11 @@
       <c r="I193">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>467</v>
       </c>
@@ -5866,8 +6463,11 @@
       <c r="I194">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>468</v>
       </c>
@@ -5883,8 +6483,11 @@
       <c r="I195">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>469</v>
       </c>
@@ -5900,8 +6503,11 @@
       <c r="I196">
         <v>30</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>470</v>
       </c>
@@ -5917,8 +6523,11 @@
       <c r="I197">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>472</v>
       </c>
@@ -5934,8 +6543,11 @@
       <c r="I198">
         <v>28</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>473</v>
       </c>
@@ -5951,8 +6563,11 @@
       <c r="I199">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>474</v>
       </c>
@@ -5968,8 +6583,11 @@
       <c r="I200">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>475</v>
       </c>
@@ -5985,8 +6603,11 @@
       <c r="I201">
         <v>21</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>479</v>
       </c>
@@ -6002,8 +6623,11 @@
       <c r="I202">
         <v>12</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>480</v>
       </c>
@@ -6019,8 +6643,11 @@
       <c r="I203">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>482</v>
       </c>
@@ -6036,8 +6663,11 @@
       <c r="I204">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>496</v>
       </c>
@@ -6053,8 +6683,11 @@
       <c r="I205">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>497</v>
       </c>
@@ -6070,8 +6703,11 @@
       <c r="I206">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>498</v>
       </c>
@@ -6087,8 +6723,11 @@
       <c r="I207">
         <v>17</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>501</v>
       </c>
@@ -6104,8 +6743,11 @@
       <c r="I208">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>502</v>
       </c>
@@ -6121,8 +6763,11 @@
       <c r="I209">
         <v>30</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>503</v>
       </c>
@@ -6138,8 +6783,11 @@
       <c r="I210">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>504</v>
       </c>
@@ -6155,8 +6803,11 @@
       <c r="I211">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>505</v>
       </c>
@@ -6172,8 +6823,11 @@
       <c r="I212">
         <v>30</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>506</v>
       </c>
@@ -6189,8 +6843,11 @@
       <c r="I213">
         <v>30</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>507</v>
       </c>
@@ -6206,8 +6863,11 @@
       <c r="I214">
         <v>30</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>509</v>
       </c>
@@ -6223,8 +6883,11 @@
       <c r="I215">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>510</v>
       </c>
@@ -6240,8 +6903,11 @@
       <c r="I216">
         <v>19</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>511</v>
       </c>
@@ -6257,8 +6923,11 @@
       <c r="I217">
         <v>19</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>512</v>
       </c>
@@ -6274,8 +6943,11 @@
       <c r="I218">
         <v>19</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>513</v>
       </c>
@@ -6291,8 +6963,11 @@
       <c r="I219">
         <v>12</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>514</v>
       </c>
@@ -6308,8 +6983,11 @@
       <c r="I220">
         <v>12</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>515</v>
       </c>
@@ -6325,8 +7003,11 @@
       <c r="I221">
         <v>14</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>516</v>
       </c>
@@ -6342,8 +7023,11 @@
       <c r="I222">
         <v>14</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>517</v>
       </c>
@@ -6359,8 +7043,11 @@
       <c r="I223">
         <v>14</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>518</v>
       </c>
@@ -6376,8 +7063,11 @@
       <c r="I224">
         <v>14</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>519</v>
       </c>
@@ -6393,8 +7083,11 @@
       <c r="I225">
         <v>12</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>520</v>
       </c>
@@ -6410,8 +7103,11 @@
       <c r="I226">
         <v>12</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>521</v>
       </c>
@@ -6427,8 +7123,11 @@
       <c r="I227">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>522</v>
       </c>
@@ -6453,8 +7152,11 @@
       <c r="I228">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>524</v>
       </c>
@@ -6470,8 +7172,11 @@
       <c r="I229">
         <v>22</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>525</v>
       </c>
@@ -6487,8 +7192,11 @@
       <c r="I230">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>526</v>
       </c>
@@ -6504,8 +7212,11 @@
       <c r="I231">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>527</v>
       </c>
@@ -6521,8 +7232,11 @@
       <c r="I232">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>528</v>
       </c>
@@ -6538,8 +7252,11 @@
       <c r="I233">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>529</v>
       </c>
@@ -6564,8 +7281,11 @@
       <c r="I234">
         <v>18</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>530</v>
       </c>
@@ -6590,8 +7310,11 @@
       <c r="I235">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>531</v>
       </c>
@@ -6607,8 +7330,11 @@
       <c r="I236">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>532</v>
       </c>
@@ -6624,8 +7350,11 @@
       <c r="I237">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>534</v>
       </c>
@@ -6641,8 +7370,11 @@
       <c r="I238">
         <v>27</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>535</v>
       </c>
@@ -6658,8 +7390,11 @@
       <c r="I239">
         <v>27</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>536</v>
       </c>
@@ -6687,8 +7422,11 @@
       <c r="I240">
         <v>15</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>538</v>
       </c>
@@ -6704,8 +7442,11 @@
       <c r="I241">
         <v>10</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>543</v>
       </c>
@@ -6721,8 +7462,11 @@
       <c r="I242">
         <v>16</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>544</v>
       </c>
@@ -6747,8 +7491,11 @@
       <c r="I243">
         <v>26</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>545</v>
       </c>
@@ -6764,8 +7511,11 @@
       <c r="I244">
         <v>21</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>546</v>
       </c>
@@ -6781,8 +7531,11 @@
       <c r="I245">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>547</v>
       </c>
@@ -6807,8 +7560,11 @@
       <c r="I246">
         <v>24</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>548</v>
       </c>
@@ -6824,8 +7580,11 @@
       <c r="I247">
         <v>12</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>549</v>
       </c>
@@ -6841,8 +7600,11 @@
       <c r="I248">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>551</v>
       </c>
@@ -6870,8 +7632,11 @@
       <c r="I249">
         <v>21</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>552</v>
       </c>
@@ -6899,8 +7664,11 @@
       <c r="I250">
         <v>29</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>553</v>
       </c>
@@ -6925,8 +7693,11 @@
       <c r="I251">
         <v>56</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>554</v>
       </c>
@@ -6951,8 +7722,11 @@
       <c r="I252">
         <v>59</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>555</v>
       </c>
@@ -6977,8 +7751,11 @@
       <c r="I253">
         <v>19</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>556</v>
       </c>
@@ -6997,8 +7774,11 @@
       <c r="I254">
         <v>9</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>558</v>
       </c>
@@ -7014,8 +7794,11 @@
       <c r="I255">
         <v>11</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>559</v>
       </c>
@@ -7031,8 +7814,11 @@
       <c r="I256">
         <v>11</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>560</v>
       </c>
@@ -7048,8 +7834,11 @@
       <c r="I257">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>561</v>
       </c>
@@ -7065,8 +7854,11 @@
       <c r="I258">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>562</v>
       </c>
@@ -7085,8 +7877,11 @@
       <c r="I259">
         <v>13</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>564</v>
       </c>
@@ -7105,8 +7900,11 @@
       <c r="I260">
         <v>21</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>566</v>
       </c>
@@ -7122,8 +7920,11 @@
       <c r="I261">
         <v>15</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>567</v>
       </c>
@@ -7139,8 +7940,11 @@
       <c r="I262">
         <v>15</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>568</v>
       </c>
@@ -7156,8 +7960,11 @@
       <c r="I263">
         <v>15</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>569</v>
       </c>
@@ -7173,8 +7980,11 @@
       <c r="I264">
         <v>11</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>570</v>
       </c>
@@ -7190,8 +8000,11 @@
       <c r="I265">
         <v>11</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>571</v>
       </c>
@@ -7207,8 +8020,11 @@
       <c r="I266">
         <v>11</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>572</v>
       </c>
@@ -7224,8 +8040,11 @@
       <c r="I267">
         <v>29</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>573</v>
       </c>
@@ -7241,8 +8060,11 @@
       <c r="I268">
         <v>29</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>574</v>
       </c>
@@ -7258,8 +8080,11 @@
       <c r="I269">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>578</v>
       </c>
@@ -7284,8 +8109,11 @@
       <c r="I270">
         <v>19</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>579</v>
       </c>
@@ -7310,8 +8138,11 @@
       <c r="I271">
         <v>19</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>580</v>
       </c>
@@ -7336,8 +8167,11 @@
       <c r="I272">
         <v>19</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>581</v>
       </c>
@@ -7353,8 +8187,11 @@
       <c r="I273">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>582</v>
       </c>
@@ -7370,8 +8207,11 @@
       <c r="I274">
         <v>13</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>583</v>
       </c>
@@ -7387,8 +8227,11 @@
       <c r="I275">
         <v>6</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>586</v>
       </c>
@@ -7416,8 +8259,11 @@
       <c r="I276">
         <v>75</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>589</v>
       </c>
@@ -7445,8 +8291,11 @@
       <c r="I277">
         <v>16</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>590</v>
       </c>
@@ -7471,8 +8320,11 @@
       <c r="I278">
         <v>19</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>591</v>
       </c>
@@ -7500,8 +8352,11 @@
       <c r="I279">
         <v>19</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>594</v>
       </c>
@@ -7517,8 +8372,11 @@
       <c r="I280">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>595</v>
       </c>
@@ -7543,8 +8401,11 @@
       <c r="I281">
         <v>18</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>597</v>
       </c>
@@ -7560,8 +8421,11 @@
       <c r="I282">
         <v>15</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>599</v>
       </c>
@@ -7586,8 +8450,11 @@
       <c r="I283">
         <v>16</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>600</v>
       </c>
@@ -7603,8 +8470,11 @@
       <c r="I284">
         <v>18</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>603</v>
       </c>
@@ -7620,8 +8490,11 @@
       <c r="I285">
         <v>7</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>604</v>
       </c>
@@ -7637,8 +8510,11 @@
       <c r="I286">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>605</v>
       </c>
@@ -7654,8 +8530,11 @@
       <c r="I287">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>606</v>
       </c>
@@ -7671,8 +8550,11 @@
       <c r="I288">
         <v>7</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>609</v>
       </c>
@@ -7688,8 +8570,11 @@
       <c r="I289">
         <v>27</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>610</v>
       </c>
@@ -7705,8 +8590,11 @@
       <c r="I290">
         <v>36</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>611</v>
       </c>
@@ -7722,8 +8610,11 @@
       <c r="I291">
         <v>40</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>612</v>
       </c>
@@ -7739,8 +8630,11 @@
       <c r="I292">
         <v>36</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>613</v>
       </c>
@@ -7756,8 +8650,11 @@
       <c r="I293">
         <v>37</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>614</v>
       </c>
@@ -7773,8 +8670,11 @@
       <c r="I294">
         <v>29</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>615</v>
       </c>
@@ -7790,8 +8690,11 @@
       <c r="I295">
         <v>29</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>616</v>
       </c>
@@ -7807,8 +8710,11 @@
       <c r="I296">
         <v>10</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>617</v>
       </c>
@@ -7824,8 +8730,11 @@
       <c r="I297">
         <v>26</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>618</v>
       </c>
@@ -7841,8 +8750,11 @@
       <c r="I298">
         <v>26</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>619</v>
       </c>
@@ -7858,8 +8770,11 @@
       <c r="I299">
         <v>16</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>620</v>
       </c>
@@ -7875,8 +8790,11 @@
       <c r="I300">
         <v>16</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>621</v>
       </c>
@@ -7892,8 +8810,11 @@
       <c r="I301">
         <v>17</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>622</v>
       </c>
@@ -7918,8 +8839,11 @@
       <c r="I302">
         <v>15</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>624</v>
       </c>
@@ -7944,8 +8868,11 @@
       <c r="I303">
         <v>15</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>627</v>
       </c>
@@ -7961,8 +8888,11 @@
       <c r="I304">
         <v>14</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>628</v>
       </c>
@@ -7987,8 +8917,11 @@
       <c r="I305">
         <v>63</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>629</v>
       </c>
@@ -8013,8 +8946,11 @@
       <c r="I306">
         <v>63</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>631</v>
       </c>
@@ -8030,8 +8966,11 @@
       <c r="I307">
         <v>29</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>632</v>
       </c>
@@ -8047,8 +8986,11 @@
       <c r="I308">
         <v>31</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>633</v>
       </c>
@@ -8064,8 +9006,11 @@
       <c r="I309">
         <v>31</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>634</v>
       </c>
@@ -8081,8 +9026,11 @@
       <c r="I310">
         <v>26</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>635</v>
       </c>
@@ -8098,8 +9046,11 @@
       <c r="I311">
         <v>26</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>636</v>
       </c>
@@ -8115,8 +9066,11 @@
       <c r="I312">
         <v>26</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>637</v>
       </c>
@@ -8132,8 +9086,11 @@
       <c r="I313">
         <v>13</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>639</v>
       </c>
@@ -8149,8 +9106,11 @@
       <c r="I314">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>640</v>
       </c>
@@ -8166,8 +9126,11 @@
       <c r="I315">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>641</v>
       </c>
@@ -8183,8 +9146,11 @@
       <c r="I316">
         <v>17</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>642</v>
       </c>
@@ -8200,8 +9166,11 @@
       <c r="I317">
         <v>14</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>643</v>
       </c>
@@ -8217,8 +9186,11 @@
       <c r="I318">
         <v>10</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>644</v>
       </c>
@@ -8234,8 +9206,11 @@
       <c r="I319">
         <v>10</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>645</v>
       </c>
@@ -8251,8 +9226,11 @@
       <c r="I320">
         <v>7</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>646</v>
       </c>
@@ -8268,8 +9246,11 @@
       <c r="I321">
         <v>8</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>647</v>
       </c>
@@ -8285,8 +9266,11 @@
       <c r="I322">
         <v>12</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>648</v>
       </c>
@@ -8302,8 +9286,11 @@
       <c r="I323">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>650</v>
       </c>
@@ -8328,8 +9315,11 @@
       <c r="I324">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>652</v>
       </c>
@@ -8345,8 +9335,11 @@
       <c r="I325">
         <v>15</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>653</v>
       </c>
@@ -8362,8 +9355,11 @@
       <c r="I326">
         <v>15</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>655</v>
       </c>
@@ -8391,8 +9387,11 @@
       <c r="I327">
         <v>11</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>656</v>
       </c>
@@ -8408,8 +9407,11 @@
       <c r="I328">
         <v>21</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>657</v>
       </c>
@@ -8434,8 +9436,11 @@
       <c r="I329">
         <v>56</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>658</v>
       </c>
@@ -8451,8 +9456,11 @@
       <c r="I330">
         <v>10</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>659</v>
       </c>
@@ -8477,8 +9485,11 @@
       <c r="I331">
         <v>15</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>660</v>
       </c>
@@ -8494,8 +9505,11 @@
       <c r="I332">
         <v>5</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>661</v>
       </c>
@@ -8523,8 +9537,11 @@
       <c r="I333">
         <v>16</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>662</v>
       </c>
@@ -8552,8 +9569,11 @@
       <c r="I334">
         <v>63</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>663</v>
       </c>
@@ -8581,8 +9601,11 @@
       <c r="I335">
         <v>39</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>664</v>
       </c>
@@ -8610,8 +9633,11 @@
       <c r="I336">
         <v>19</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>665</v>
       </c>
@@ -8639,8 +9665,11 @@
       <c r="I337">
         <v>84</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>666</v>
       </c>
@@ -8668,8 +9697,11 @@
       <c r="I338">
         <v>18</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>667</v>
       </c>
@@ -8697,8 +9729,11 @@
       <c r="I339">
         <v>72</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>668</v>
       </c>
@@ -8726,8 +9761,11 @@
       <c r="I340">
         <v>29</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>669</v>
       </c>
@@ -8755,8 +9793,11 @@
       <c r="I341">
         <v>29</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>670</v>
       </c>
@@ -8784,8 +9825,11 @@
       <c r="I342">
         <v>50</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>671</v>
       </c>
@@ -8813,8 +9857,11 @@
       <c r="I343">
         <v>11</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>672</v>
       </c>
@@ -8842,8 +9889,11 @@
       <c r="I344">
         <v>11</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>675</v>
       </c>
@@ -8871,8 +9921,11 @@
       <c r="I345">
         <v>62</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J345" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>678</v>
       </c>
@@ -8900,8 +9953,11 @@
       <c r="I346">
         <v>27</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>679</v>
       </c>
@@ -8929,8 +9985,11 @@
       <c r="I347">
         <v>17</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>680</v>
       </c>
@@ -8958,8 +10017,11 @@
       <c r="I348">
         <v>24</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>681</v>
       </c>
@@ -8987,8 +10049,11 @@
       <c r="I349">
         <v>24</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>682</v>
       </c>
@@ -9016,8 +10081,11 @@
       <c r="I350">
         <v>9</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>683</v>
       </c>
@@ -9045,8 +10113,11 @@
       <c r="I351">
         <v>15</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>684</v>
       </c>
@@ -9074,8 +10145,11 @@
       <c r="I352">
         <v>17</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>685</v>
       </c>
@@ -9103,8 +10177,11 @@
       <c r="I353">
         <v>75</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>686</v>
       </c>
@@ -9132,8 +10209,11 @@
       <c r="I354">
         <v>16</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>687</v>
       </c>
@@ -9161,8 +10241,11 @@
       <c r="I355">
         <v>36</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>688</v>
       </c>
@@ -9190,8 +10273,11 @@
       <c r="I356">
         <v>36</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>689</v>
       </c>
@@ -9219,8 +10305,11 @@
       <c r="I357">
         <v>6</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>690</v>
       </c>
@@ -9248,8 +10337,11 @@
       <c r="I358">
         <v>55</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>691</v>
       </c>
@@ -9277,8 +10369,11 @@
       <c r="I359">
         <v>40</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>692</v>
       </c>
@@ -9306,8 +10401,11 @@
       <c r="I360">
         <v>57</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>694</v>
       </c>
@@ -9335,8 +10433,11 @@
       <c r="I361">
         <v>25</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>697</v>
       </c>
@@ -9364,8 +10465,11 @@
       <c r="I362">
         <v>33</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J362" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>699</v>
       </c>
@@ -9393,8 +10497,11 @@
       <c r="I363">
         <v>11</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J363" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>700</v>
       </c>
@@ -9422,8 +10529,11 @@
       <c r="I364">
         <v>16</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J364" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>702</v>
       </c>
@@ -9451,8 +10561,11 @@
       <c r="I365">
         <v>11</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J365" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>703</v>
       </c>
@@ -9480,8 +10593,11 @@
       <c r="I366">
         <v>50</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J366" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>704</v>
       </c>
@@ -9509,8 +10625,11 @@
       <c r="I367">
         <v>50</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J367" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>706</v>
       </c>
@@ -9538,8 +10657,11 @@
       <c r="I368">
         <v>18</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J368" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>707</v>
       </c>
@@ -9567,8 +10689,11 @@
       <c r="I369">
         <v>34</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J369" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>708</v>
       </c>
@@ -9596,8 +10721,11 @@
       <c r="I370">
         <v>34</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J370" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>710</v>
       </c>
@@ -9625,8 +10753,11 @@
       <c r="I371">
         <v>11</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J371" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>713</v>
       </c>
@@ -9654,8 +10785,11 @@
       <c r="I372">
         <v>18</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J372" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>716</v>
       </c>
@@ -9683,8 +10817,11 @@
       <c r="I373">
         <v>59</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J373" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>717</v>
       </c>
@@ -9712,8 +10849,11 @@
       <c r="I374">
         <v>59</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J374" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>718</v>
       </c>
@@ -9741,8 +10881,11 @@
       <c r="I375">
         <v>14</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J375" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>719</v>
       </c>
@@ -9770,8 +10913,11 @@
       <c r="I376">
         <v>15</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J376" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>720</v>
       </c>
@@ -9799,8 +10945,11 @@
       <c r="I377">
         <v>20</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J377" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>721</v>
       </c>
@@ -9819,8 +10968,11 @@
       <c r="I378">
         <v>50</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J378" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>722</v>
       </c>
@@ -9839,8 +10991,11 @@
       <c r="I379">
         <v>50</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J379" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>723</v>
       </c>
@@ -9859,8 +11014,11 @@
       <c r="I380">
         <v>50</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J380" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>724</v>
       </c>
@@ -9888,8 +11046,11 @@
       <c r="I381">
         <v>32</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J381" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>725</v>
       </c>
@@ -9908,8 +11069,11 @@
       <c r="I382">
         <v>23</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J382" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>726</v>
       </c>
@@ -9928,8 +11092,11 @@
       <c r="I383">
         <v>27</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J383" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>727</v>
       </c>
@@ -9948,8 +11115,11 @@
       <c r="I384">
         <v>14</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J384" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>729</v>
       </c>
@@ -9977,8 +11147,11 @@
       <c r="I385">
         <v>17</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J385" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>731</v>
       </c>
@@ -10006,8 +11179,11 @@
       <c r="I386">
         <v>14</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J386" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>733</v>
       </c>
@@ -10035,8 +11211,11 @@
       <c r="I387">
         <v>50</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J387" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>737</v>
       </c>
@@ -10055,8 +11234,11 @@
       <c r="I388">
         <v>9</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J388" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>738</v>
       </c>
@@ -10075,8 +11257,11 @@
       <c r="I389">
         <v>30</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J389" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>740</v>
       </c>
@@ -10094,6 +11279,9 @@
       </c>
       <c r="I390">
         <v>19</v>
+      </c>
+      <c r="J390" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset_xlsx/symptoms2.xlsx
+++ b/Dataset_xlsx/symptoms2.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="_id" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="401">
   <si>
     <t>_id</t>
   </si>
@@ -1210,6 +1210,18 @@
   </si>
   <si>
     <t>High blood sugar</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>Superiore</t>
+  </si>
+  <si>
+    <t>Generale</t>
+  </si>
+  <si>
+    <t>Inferiore</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1255,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1549,13 +1562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1583,8 +1598,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1612,8 +1630,11 @@
       <c r="I2">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1638,8 +1659,11 @@
       <c r="I3">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1667,8 +1691,11 @@
       <c r="I4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1693,8 +1720,11 @@
       <c r="I5">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1710,8 +1740,11 @@
       <c r="I6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1727,8 +1760,11 @@
       <c r="I7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1756,8 +1792,11 @@
       <c r="I8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1782,8 +1821,11 @@
       <c r="I9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1808,8 +1850,11 @@
       <c r="I10">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1834,8 +1879,11 @@
       <c r="I11">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1860,8 +1908,11 @@
       <c r="I12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1889,8 +1940,11 @@
       <c r="I13">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1918,8 +1972,11 @@
       <c r="I14">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1944,8 +2001,11 @@
       <c r="I15">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1961,8 +2021,11 @@
       <c r="I16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1978,8 +2041,11 @@
       <c r="I17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1995,8 +2061,11 @@
       <c r="I18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
@@ -2021,8 +2090,11 @@
       <c r="I19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
@@ -2050,8 +2122,11 @@
       <c r="I20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
@@ -2067,8 +2142,11 @@
       <c r="I21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -2096,8 +2174,11 @@
       <c r="I22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>25</v>
       </c>
@@ -2113,8 +2194,11 @@
       <c r="I23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>26</v>
       </c>
@@ -2130,8 +2214,11 @@
       <c r="I24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -2156,8 +2243,11 @@
       <c r="I25">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30</v>
       </c>
@@ -2185,8 +2275,11 @@
       <c r="I26">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>31</v>
       </c>
@@ -2211,8 +2304,11 @@
       <c r="I27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>32</v>
       </c>
@@ -2237,8 +2333,11 @@
       <c r="I28">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>33</v>
       </c>
@@ -2266,8 +2365,11 @@
       <c r="I29">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>36</v>
       </c>
@@ -2295,8 +2397,11 @@
       <c r="I30">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>37</v>
       </c>
@@ -2321,8 +2426,11 @@
       <c r="I31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>38</v>
       </c>
@@ -2350,8 +2458,11 @@
       <c r="I32">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -2367,8 +2478,11 @@
       <c r="I33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>40</v>
       </c>
@@ -2384,8 +2498,11 @@
       <c r="I34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41</v>
       </c>
@@ -2413,8 +2530,11 @@
       <c r="I35">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>42</v>
       </c>
@@ -2442,8 +2562,11 @@
       <c r="I36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>43</v>
       </c>
@@ -2471,8 +2594,11 @@
       <c r="I37">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>44</v>
       </c>
@@ -2500,8 +2626,11 @@
       <c r="I38">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>45</v>
       </c>
@@ -2517,8 +2646,11 @@
       <c r="I39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>47</v>
       </c>
@@ -2546,8 +2678,11 @@
       <c r="I40">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>48</v>
       </c>
@@ -2575,8 +2710,11 @@
       <c r="I41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>49</v>
       </c>
@@ -2604,8 +2742,11 @@
       <c r="I42">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>50</v>
       </c>
@@ -2621,8 +2762,11 @@
       <c r="I43">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>51</v>
       </c>
@@ -2647,8 +2791,11 @@
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>52</v>
       </c>
@@ -2676,8 +2823,11 @@
       <c r="I45">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>53</v>
       </c>
@@ -2705,8 +2855,11 @@
       <c r="I46">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>54</v>
       </c>
@@ -2734,8 +2887,11 @@
       <c r="I47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>55</v>
       </c>
@@ -2763,8 +2919,11 @@
       <c r="I48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>56</v>
       </c>
@@ -2789,8 +2948,11 @@
       <c r="I49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>57</v>
       </c>
@@ -2806,8 +2968,11 @@
       <c r="I50">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>58</v>
       </c>
@@ -2823,8 +2988,11 @@
       <c r="I51">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>59</v>
       </c>
@@ -2849,8 +3017,11 @@
       <c r="I52">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>60</v>
       </c>
@@ -2875,8 +3046,11 @@
       <c r="I53">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>61</v>
       </c>
@@ -2901,8 +3075,11 @@
       <c r="I54">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>63</v>
       </c>
@@ -2918,8 +3095,11 @@
       <c r="I55">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>64</v>
       </c>
@@ -2947,8 +3127,11 @@
       <c r="I56">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>66</v>
       </c>
@@ -2976,8 +3159,11 @@
       <c r="I57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>67</v>
       </c>
@@ -3005,8 +3191,11 @@
       <c r="I58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>68</v>
       </c>
@@ -3034,8 +3223,11 @@
       <c r="I59">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>69</v>
       </c>
@@ -3051,8 +3243,11 @@
       <c r="I60">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>70</v>
       </c>
@@ -3080,8 +3275,11 @@
       <c r="I61">
         <v>71</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>71</v>
       </c>
@@ -3106,8 +3304,11 @@
       <c r="I62">
         <v>71</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>72</v>
       </c>
@@ -3123,8 +3324,11 @@
       <c r="I63">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>73</v>
       </c>
@@ -3140,8 +3344,11 @@
       <c r="I64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>76</v>
       </c>
@@ -3157,8 +3364,11 @@
       <c r="I65">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>77</v>
       </c>
@@ -3174,8 +3384,11 @@
       <c r="I66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>78</v>
       </c>
@@ -3191,8 +3404,11 @@
       <c r="I67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>79</v>
       </c>
@@ -3208,8 +3424,11 @@
       <c r="I68">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>80</v>
       </c>
@@ -3225,8 +3444,11 @@
       <c r="I69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>81</v>
       </c>
@@ -3242,8 +3464,11 @@
       <c r="I70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>82</v>
       </c>
@@ -3271,8 +3496,11 @@
       <c r="I71">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>83</v>
       </c>
@@ -3297,8 +3525,11 @@
       <c r="I72">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>84</v>
       </c>
@@ -3314,8 +3545,11 @@
       <c r="I73">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>85</v>
       </c>
@@ -3331,8 +3565,11 @@
       <c r="I74">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>86</v>
       </c>
@@ -3360,8 +3597,11 @@
       <c r="I75">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>88</v>
       </c>
@@ -3389,8 +3629,11 @@
       <c r="I76">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>89</v>
       </c>
@@ -3406,8 +3649,11 @@
       <c r="I77">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>90</v>
       </c>
@@ -3435,8 +3681,11 @@
       <c r="I78">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>91</v>
       </c>
@@ -3461,8 +3710,11 @@
       <c r="I79">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>92</v>
       </c>
@@ -3478,8 +3730,11 @@
       <c r="I80">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>93</v>
       </c>
@@ -3507,8 +3762,11 @@
       <c r="I81">
         <v>62</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>94</v>
       </c>
@@ -3536,8 +3794,11 @@
       <c r="I82">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>95</v>
       </c>
@@ -3562,8 +3823,11 @@
       <c r="I83">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>96</v>
       </c>
@@ -3579,8 +3843,11 @@
       <c r="I84">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>98</v>
       </c>
@@ -3596,8 +3863,11 @@
       <c r="I85">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>99</v>
       </c>
@@ -3613,8 +3883,11 @@
       <c r="I86">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>100</v>
       </c>
@@ -3630,8 +3903,11 @@
       <c r="I87">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>101</v>
       </c>
@@ -3647,8 +3923,11 @@
       <c r="I88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>102</v>
       </c>
@@ -3673,8 +3952,11 @@
       <c r="I89">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>103</v>
       </c>
@@ -3702,8 +3984,11 @@
       <c r="I90">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>104</v>
       </c>
@@ -3719,8 +4004,11 @@
       <c r="I91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>105</v>
       </c>
@@ -3748,8 +4036,11 @@
       <c r="I92">
         <v>56</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>106</v>
       </c>
@@ -3777,8 +4068,11 @@
       <c r="I93">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>107</v>
       </c>
@@ -3794,8 +4088,11 @@
       <c r="I94">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>108</v>
       </c>
@@ -3811,8 +4108,11 @@
       <c r="I95">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>109</v>
       </c>
@@ -3828,8 +4128,11 @@
       <c r="I96">
         <v>36</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>110</v>
       </c>
@@ -3845,8 +4148,11 @@
       <c r="I97">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>111</v>
       </c>
@@ -3862,8 +4168,11 @@
       <c r="I98">
         <v>36</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>112</v>
       </c>
@@ -3888,8 +4197,11 @@
       <c r="I99">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>113</v>
       </c>
@@ -3917,8 +4229,11 @@
       <c r="I100">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>114</v>
       </c>
@@ -3934,8 +4249,11 @@
       <c r="I101">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>115</v>
       </c>
@@ -3963,8 +4281,11 @@
       <c r="I102">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>116</v>
       </c>
@@ -3992,8 +4313,11 @@
       <c r="I103">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>117</v>
       </c>
@@ -4018,8 +4342,11 @@
       <c r="I104">
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>118</v>
       </c>
@@ -4035,8 +4362,11 @@
       <c r="I105">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>119</v>
       </c>
@@ -4061,8 +4391,11 @@
       <c r="I106">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>120</v>
       </c>
@@ -4090,8 +4423,11 @@
       <c r="I107">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>121</v>
       </c>
@@ -4107,8 +4443,11 @@
       <c r="I108">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>122</v>
       </c>
@@ -4124,8 +4463,11 @@
       <c r="I109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>123</v>
       </c>
@@ -4141,8 +4483,11 @@
       <c r="I110">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>124</v>
       </c>
@@ -4158,8 +4503,11 @@
       <c r="I111">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>125</v>
       </c>
@@ -4184,8 +4532,11 @@
       <c r="I112">
         <v>62</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>126</v>
       </c>
@@ -4213,8 +4564,11 @@
       <c r="I113">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>127</v>
       </c>
@@ -4230,8 +4584,11 @@
       <c r="I114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>130</v>
       </c>
@@ -4256,8 +4613,11 @@
       <c r="I115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>131</v>
       </c>
@@ -4273,8 +4633,11 @@
       <c r="I116">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>132</v>
       </c>
@@ -4299,8 +4662,11 @@
       <c r="I117">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>133</v>
       </c>
@@ -4328,8 +4694,11 @@
       <c r="I118">
         <v>75</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>135</v>
       </c>
@@ -4357,8 +4726,11 @@
       <c r="I119">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>136</v>
       </c>
@@ -4386,8 +4758,11 @@
       <c r="I120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>138</v>
       </c>
@@ -4403,8 +4778,11 @@
       <c r="I121">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>139</v>
       </c>
@@ -4420,8 +4798,11 @@
       <c r="I122">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>140</v>
       </c>
@@ -4449,8 +4830,11 @@
       <c r="I123">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>141</v>
       </c>
@@ -4466,8 +4850,11 @@
       <c r="I124">
         <v>34</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>142</v>
       </c>
@@ -4486,8 +4873,11 @@
       <c r="I125">
         <v>34</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>143</v>
       </c>
@@ -4503,8 +4893,11 @@
       <c r="I126">
         <v>34</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>144</v>
       </c>
@@ -4520,8 +4913,11 @@
       <c r="I127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>145</v>
       </c>
@@ -4546,8 +4942,11 @@
       <c r="I128">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>146</v>
       </c>
@@ -4563,8 +4962,11 @@
       <c r="I129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>147</v>
       </c>
@@ -4580,8 +4982,11 @@
       <c r="I130">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>148</v>
       </c>
@@ -4597,8 +5002,11 @@
       <c r="I131">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>149</v>
       </c>
@@ -4614,8 +5022,11 @@
       <c r="I132">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>150</v>
       </c>
@@ -4631,8 +5042,11 @@
       <c r="I133">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>151</v>
       </c>
@@ -4648,8 +5062,11 @@
       <c r="I134">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>152</v>
       </c>
@@ -4665,8 +5082,11 @@
       <c r="I135">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>153</v>
       </c>
@@ -4682,8 +5102,11 @@
       <c r="I136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>154</v>
       </c>
@@ -4708,8 +5131,11 @@
       <c r="I137">
         <v>29</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>155</v>
       </c>
@@ -4734,8 +5160,11 @@
       <c r="I138">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>156</v>
       </c>
@@ -4751,8 +5180,11 @@
       <c r="I139">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>157</v>
       </c>
@@ -4768,8 +5200,11 @@
       <c r="I140">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>158</v>
       </c>
@@ -4794,8 +5229,11 @@
       <c r="I141">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>159</v>
       </c>
@@ -4811,8 +5249,11 @@
       <c r="I142">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>160</v>
       </c>
@@ -4828,8 +5269,11 @@
       <c r="I143">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>161</v>
       </c>
@@ -4845,8 +5289,11 @@
       <c r="I144">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>162</v>
       </c>
@@ -4862,8 +5309,11 @@
       <c r="I145">
         <v>19</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>163</v>
       </c>
@@ -4888,8 +5338,11 @@
       <c r="I146">
         <v>56</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>164</v>
       </c>
@@ -4914,8 +5367,11 @@
       <c r="I147">
         <v>56</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>165</v>
       </c>
@@ -4943,8 +5399,11 @@
       <c r="I148">
         <v>59</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>166</v>
       </c>
@@ -4972,8 +5431,11 @@
       <c r="I149">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>167</v>
       </c>
@@ -4989,8 +5451,11 @@
       <c r="I150">
         <v>26</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>168</v>
       </c>
@@ -5018,8 +5483,11 @@
       <c r="I151">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>170</v>
       </c>
@@ -5035,8 +5503,11 @@
       <c r="I152">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>179</v>
       </c>
@@ -5061,8 +5532,11 @@
       <c r="I153">
         <v>29</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>180</v>
       </c>
@@ -5090,8 +5564,11 @@
       <c r="I154">
         <v>34</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>182</v>
       </c>
@@ -5107,8 +5584,11 @@
       <c r="I155">
         <v>35</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>184</v>
       </c>
@@ -5136,8 +5616,11 @@
       <c r="I156">
         <v>47</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>185</v>
       </c>
@@ -5165,8 +5648,11 @@
       <c r="I157">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>188</v>
       </c>
@@ -5191,8 +5677,11 @@
       <c r="I158">
         <v>29</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>189</v>
       </c>
@@ -5208,8 +5697,11 @@
       <c r="I159">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>192</v>
       </c>
@@ -5225,8 +5717,11 @@
       <c r="I160">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>193</v>
       </c>
@@ -5254,8 +5749,11 @@
       <c r="I161">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>195</v>
       </c>
@@ -5271,8 +5769,11 @@
       <c r="I162">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>196</v>
       </c>
@@ -5288,8 +5789,11 @@
       <c r="I163">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>200</v>
       </c>
@@ -5317,8 +5821,11 @@
       <c r="I164">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>203</v>
       </c>
@@ -5334,8 +5841,11 @@
       <c r="I165">
         <v>29</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>204</v>
       </c>
@@ -5360,8 +5870,11 @@
       <c r="I166">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>205</v>
       </c>
@@ -5377,8 +5890,11 @@
       <c r="I167">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>206</v>
       </c>
@@ -5394,8 +5910,11 @@
       <c r="I168">
         <v>19</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>207</v>
       </c>
@@ -5423,8 +5942,11 @@
       <c r="I169">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>208</v>
       </c>
@@ -5440,8 +5962,11 @@
       <c r="I170">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>209</v>
       </c>
@@ -5457,8 +5982,11 @@
       <c r="I171">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>210</v>
       </c>
@@ -5474,8 +6002,11 @@
       <c r="I172">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>212</v>
       </c>
@@ -5491,8 +6022,11 @@
       <c r="I173">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>213</v>
       </c>
@@ -5517,8 +6051,11 @@
       <c r="I174">
         <v>26</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>214</v>
       </c>
@@ -5534,8 +6071,11 @@
       <c r="I175">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>215</v>
       </c>
@@ -5551,8 +6091,11 @@
       <c r="I176">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>217</v>
       </c>
@@ -5568,8 +6111,11 @@
       <c r="I177">
         <v>12</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>218</v>
       </c>
@@ -5585,8 +6131,11 @@
       <c r="I178">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>219</v>
       </c>
@@ -5602,8 +6151,11 @@
       <c r="I179">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>220</v>
       </c>
@@ -5619,8 +6171,11 @@
       <c r="I180">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>221</v>
       </c>
@@ -5636,8 +6191,11 @@
       <c r="I181">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>222</v>
       </c>
@@ -5653,8 +6211,11 @@
       <c r="I182">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>223</v>
       </c>
@@ -5670,8 +6231,11 @@
       <c r="I183">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>224</v>
       </c>
@@ -5687,8 +6251,11 @@
       <c r="I184">
         <v>13</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>225</v>
       </c>
@@ -5704,8 +6271,11 @@
       <c r="I185">
         <v>24</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>226</v>
       </c>
@@ -5721,8 +6291,11 @@
       <c r="I186">
         <v>24</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>227</v>
       </c>
@@ -5738,8 +6311,11 @@
       <c r="I187">
         <v>24</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>228</v>
       </c>
@@ -5755,8 +6331,11 @@
       <c r="I188">
         <v>24</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>229</v>
       </c>
@@ -5772,8 +6351,11 @@
       <c r="I189">
         <v>34</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>230</v>
       </c>
@@ -5789,8 +6371,11 @@
       <c r="I190">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>234</v>
       </c>
@@ -5815,8 +6400,11 @@
       <c r="I191">
         <v>56</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>235</v>
       </c>
@@ -5832,8 +6420,11 @@
       <c r="I192">
         <v>27</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>466</v>
       </c>
@@ -5849,8 +6440,11 @@
       <c r="I193">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>467</v>
       </c>
@@ -5866,8 +6460,11 @@
       <c r="I194">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>468</v>
       </c>
@@ -5883,8 +6480,11 @@
       <c r="I195">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>469</v>
       </c>
@@ -5900,8 +6500,11 @@
       <c r="I196">
         <v>30</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>470</v>
       </c>
@@ -5917,8 +6520,11 @@
       <c r="I197">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>472</v>
       </c>
@@ -5934,8 +6540,11 @@
       <c r="I198">
         <v>28</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>473</v>
       </c>
@@ -5951,8 +6560,11 @@
       <c r="I199">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>474</v>
       </c>
@@ -5968,8 +6580,11 @@
       <c r="I200">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>475</v>
       </c>
@@ -5985,8 +6600,11 @@
       <c r="I201">
         <v>21</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>479</v>
       </c>
@@ -6002,8 +6620,11 @@
       <c r="I202">
         <v>12</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>480</v>
       </c>
@@ -6019,8 +6640,11 @@
       <c r="I203">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>482</v>
       </c>
@@ -6036,8 +6660,11 @@
       <c r="I204">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>496</v>
       </c>
@@ -6053,8 +6680,11 @@
       <c r="I205">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>497</v>
       </c>
@@ -6070,8 +6700,11 @@
       <c r="I206">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>498</v>
       </c>
@@ -6087,8 +6720,11 @@
       <c r="I207">
         <v>17</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>501</v>
       </c>
@@ -6104,8 +6740,11 @@
       <c r="I208">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>502</v>
       </c>
@@ -6121,8 +6760,11 @@
       <c r="I209">
         <v>30</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>503</v>
       </c>
@@ -6138,8 +6780,11 @@
       <c r="I210">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>504</v>
       </c>
@@ -6155,8 +6800,11 @@
       <c r="I211">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>505</v>
       </c>
@@ -6172,8 +6820,11 @@
       <c r="I212">
         <v>30</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>506</v>
       </c>
@@ -6189,8 +6840,11 @@
       <c r="I213">
         <v>30</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>507</v>
       </c>
@@ -6206,8 +6860,11 @@
       <c r="I214">
         <v>30</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>509</v>
       </c>
@@ -6223,8 +6880,11 @@
       <c r="I215">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>510</v>
       </c>
@@ -6240,8 +6900,11 @@
       <c r="I216">
         <v>19</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>511</v>
       </c>
@@ -6257,8 +6920,11 @@
       <c r="I217">
         <v>19</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>512</v>
       </c>
@@ -6274,8 +6940,11 @@
       <c r="I218">
         <v>19</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>513</v>
       </c>
@@ -6291,8 +6960,11 @@
       <c r="I219">
         <v>12</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>514</v>
       </c>
@@ -6308,8 +6980,11 @@
       <c r="I220">
         <v>12</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>515</v>
       </c>
@@ -6325,8 +7000,11 @@
       <c r="I221">
         <v>14</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>516</v>
       </c>
@@ -6342,8 +7020,11 @@
       <c r="I222">
         <v>14</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>517</v>
       </c>
@@ -6359,8 +7040,11 @@
       <c r="I223">
         <v>14</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>518</v>
       </c>
@@ -6376,8 +7060,11 @@
       <c r="I224">
         <v>14</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>519</v>
       </c>
@@ -6393,8 +7080,11 @@
       <c r="I225">
         <v>12</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>520</v>
       </c>
@@ -6410,8 +7100,11 @@
       <c r="I226">
         <v>12</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>521</v>
       </c>
@@ -6427,8 +7120,11 @@
       <c r="I227">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>522</v>
       </c>
@@ -6453,8 +7149,11 @@
       <c r="I228">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>524</v>
       </c>
@@ -6470,8 +7169,11 @@
       <c r="I229">
         <v>22</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>525</v>
       </c>
@@ -6487,8 +7189,11 @@
       <c r="I230">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>526</v>
       </c>
@@ -6504,8 +7209,11 @@
       <c r="I231">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>527</v>
       </c>
@@ -6521,8 +7229,11 @@
       <c r="I232">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>528</v>
       </c>
@@ -6538,8 +7249,11 @@
       <c r="I233">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>529</v>
       </c>
@@ -6564,8 +7278,11 @@
       <c r="I234">
         <v>18</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>530</v>
       </c>
@@ -6590,8 +7307,11 @@
       <c r="I235">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>531</v>
       </c>
@@ -6607,8 +7327,11 @@
       <c r="I236">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>532</v>
       </c>
@@ -6624,8 +7347,11 @@
       <c r="I237">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>534</v>
       </c>
@@ -6641,8 +7367,11 @@
       <c r="I238">
         <v>27</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>535</v>
       </c>
@@ -6658,8 +7387,11 @@
       <c r="I239">
         <v>27</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>536</v>
       </c>
@@ -6687,8 +7419,11 @@
       <c r="I240">
         <v>15</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>538</v>
       </c>
@@ -6704,8 +7439,11 @@
       <c r="I241">
         <v>10</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>543</v>
       </c>
@@ -6721,8 +7459,11 @@
       <c r="I242">
         <v>16</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>544</v>
       </c>
@@ -6747,8 +7488,11 @@
       <c r="I243">
         <v>26</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>545</v>
       </c>
@@ -6764,8 +7508,11 @@
       <c r="I244">
         <v>21</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>546</v>
       </c>
@@ -6781,8 +7528,11 @@
       <c r="I245">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>547</v>
       </c>
@@ -6807,8 +7557,11 @@
       <c r="I246">
         <v>24</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>548</v>
       </c>
@@ -6824,8 +7577,11 @@
       <c r="I247">
         <v>12</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>549</v>
       </c>
@@ -6841,8 +7597,11 @@
       <c r="I248">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>551</v>
       </c>
@@ -6870,8 +7629,11 @@
       <c r="I249">
         <v>21</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>552</v>
       </c>
@@ -6899,8 +7661,11 @@
       <c r="I250">
         <v>29</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>553</v>
       </c>
@@ -6925,8 +7690,11 @@
       <c r="I251">
         <v>56</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>554</v>
       </c>
@@ -6951,8 +7719,11 @@
       <c r="I252">
         <v>59</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>555</v>
       </c>
@@ -6977,8 +7748,11 @@
       <c r="I253">
         <v>19</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>556</v>
       </c>
@@ -6997,8 +7771,11 @@
       <c r="I254">
         <v>9</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>558</v>
       </c>
@@ -7014,8 +7791,11 @@
       <c r="I255">
         <v>11</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>559</v>
       </c>
@@ -7031,8 +7811,11 @@
       <c r="I256">
         <v>11</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>560</v>
       </c>
@@ -7048,8 +7831,11 @@
       <c r="I257">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>561</v>
       </c>
@@ -7065,8 +7851,11 @@
       <c r="I258">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>562</v>
       </c>
@@ -7085,8 +7874,11 @@
       <c r="I259">
         <v>13</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>564</v>
       </c>
@@ -7105,8 +7897,11 @@
       <c r="I260">
         <v>21</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>566</v>
       </c>
@@ -7122,8 +7917,11 @@
       <c r="I261">
         <v>15</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>567</v>
       </c>
@@ -7139,8 +7937,11 @@
       <c r="I262">
         <v>15</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>568</v>
       </c>
@@ -7156,8 +7957,11 @@
       <c r="I263">
         <v>15</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>569</v>
       </c>
@@ -7173,8 +7977,11 @@
       <c r="I264">
         <v>11</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>570</v>
       </c>
@@ -7190,8 +7997,11 @@
       <c r="I265">
         <v>11</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>571</v>
       </c>
@@ -7207,8 +8017,11 @@
       <c r="I266">
         <v>11</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>572</v>
       </c>
@@ -7224,8 +8037,11 @@
       <c r="I267">
         <v>29</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>573</v>
       </c>
@@ -7241,8 +8057,11 @@
       <c r="I268">
         <v>29</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>574</v>
       </c>
@@ -7258,8 +8077,11 @@
       <c r="I269">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>578</v>
       </c>
@@ -7284,8 +8106,11 @@
       <c r="I270">
         <v>19</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>579</v>
       </c>
@@ -7310,8 +8135,11 @@
       <c r="I271">
         <v>19</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>580</v>
       </c>
@@ -7336,8 +8164,11 @@
       <c r="I272">
         <v>19</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>581</v>
       </c>
@@ -7353,8 +8184,11 @@
       <c r="I273">
         <v>13</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>582</v>
       </c>
@@ -7370,8 +8204,11 @@
       <c r="I274">
         <v>13</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>583</v>
       </c>
@@ -7387,8 +8224,11 @@
       <c r="I275">
         <v>6</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>586</v>
       </c>
@@ -7416,8 +8256,11 @@
       <c r="I276">
         <v>75</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>589</v>
       </c>
@@ -7445,8 +8288,11 @@
       <c r="I277">
         <v>16</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>590</v>
       </c>
@@ -7471,8 +8317,11 @@
       <c r="I278">
         <v>19</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>591</v>
       </c>
@@ -7500,8 +8349,11 @@
       <c r="I279">
         <v>19</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>594</v>
       </c>
@@ -7517,8 +8369,11 @@
       <c r="I280">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>595</v>
       </c>
@@ -7543,8 +8398,11 @@
       <c r="I281">
         <v>18</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>597</v>
       </c>
@@ -7560,8 +8418,11 @@
       <c r="I282">
         <v>15</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>599</v>
       </c>
@@ -7586,8 +8447,11 @@
       <c r="I283">
         <v>16</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>600</v>
       </c>
@@ -7603,8 +8467,11 @@
       <c r="I284">
         <v>18</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>603</v>
       </c>
@@ -7620,8 +8487,11 @@
       <c r="I285">
         <v>7</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>604</v>
       </c>
@@ -7637,8 +8507,11 @@
       <c r="I286">
         <v>7</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>605</v>
       </c>
@@ -7654,8 +8527,11 @@
       <c r="I287">
         <v>7</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>606</v>
       </c>
@@ -7671,8 +8547,11 @@
       <c r="I288">
         <v>7</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>609</v>
       </c>
@@ -7688,8 +8567,11 @@
       <c r="I289">
         <v>27</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>610</v>
       </c>
@@ -7705,8 +8587,11 @@
       <c r="I290">
         <v>36</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>611</v>
       </c>
@@ -7722,8 +8607,11 @@
       <c r="I291">
         <v>40</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>612</v>
       </c>
@@ -7739,8 +8627,11 @@
       <c r="I292">
         <v>36</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>613</v>
       </c>
@@ -7756,8 +8647,11 @@
       <c r="I293">
         <v>37</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>614</v>
       </c>
@@ -7773,8 +8667,11 @@
       <c r="I294">
         <v>29</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>615</v>
       </c>
@@ -7790,8 +8687,11 @@
       <c r="I295">
         <v>29</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>616</v>
       </c>
@@ -7807,8 +8707,11 @@
       <c r="I296">
         <v>10</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>617</v>
       </c>
@@ -7824,8 +8727,11 @@
       <c r="I297">
         <v>26</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>618</v>
       </c>
@@ -7841,8 +8747,11 @@
       <c r="I298">
         <v>26</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>619</v>
       </c>
@@ -7858,8 +8767,11 @@
       <c r="I299">
         <v>16</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>620</v>
       </c>
@@ -7875,8 +8787,11 @@
       <c r="I300">
         <v>16</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>621</v>
       </c>
@@ -7892,8 +8807,11 @@
       <c r="I301">
         <v>17</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>622</v>
       </c>
@@ -7918,8 +8836,11 @@
       <c r="I302">
         <v>15</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>624</v>
       </c>
@@ -7944,8 +8865,11 @@
       <c r="I303">
         <v>15</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>627</v>
       </c>
@@ -7961,8 +8885,11 @@
       <c r="I304">
         <v>14</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>628</v>
       </c>
@@ -7987,8 +8914,11 @@
       <c r="I305">
         <v>63</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>629</v>
       </c>
@@ -8013,8 +8943,11 @@
       <c r="I306">
         <v>63</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>631</v>
       </c>
@@ -8030,8 +8963,11 @@
       <c r="I307">
         <v>29</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>632</v>
       </c>
@@ -8047,8 +8983,11 @@
       <c r="I308">
         <v>31</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>633</v>
       </c>
@@ -8064,8 +9003,11 @@
       <c r="I309">
         <v>31</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>634</v>
       </c>
@@ -8081,8 +9023,11 @@
       <c r="I310">
         <v>26</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>635</v>
       </c>
@@ -8098,8 +9043,11 @@
       <c r="I311">
         <v>26</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>636</v>
       </c>
@@ -8115,8 +9063,11 @@
       <c r="I312">
         <v>26</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>637</v>
       </c>
@@ -8132,8 +9083,11 @@
       <c r="I313">
         <v>13</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>639</v>
       </c>
@@ -8149,8 +9103,11 @@
       <c r="I314">
         <v>4</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>640</v>
       </c>
@@ -8166,8 +9123,11 @@
       <c r="I315">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>641</v>
       </c>
@@ -8183,8 +9143,11 @@
       <c r="I316">
         <v>17</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>642</v>
       </c>
@@ -8200,8 +9163,11 @@
       <c r="I317">
         <v>14</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>643</v>
       </c>
@@ -8217,8 +9183,11 @@
       <c r="I318">
         <v>10</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>644</v>
       </c>
@@ -8234,8 +9203,11 @@
       <c r="I319">
         <v>10</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>645</v>
       </c>
@@ -8251,8 +9223,11 @@
       <c r="I320">
         <v>7</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>646</v>
       </c>
@@ -8268,8 +9243,11 @@
       <c r="I321">
         <v>8</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>647</v>
       </c>
@@ -8285,8 +9263,11 @@
       <c r="I322">
         <v>12</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>648</v>
       </c>
@@ -8302,8 +9283,11 @@
       <c r="I323">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>650</v>
       </c>
@@ -8328,8 +9312,11 @@
       <c r="I324">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>652</v>
       </c>
@@ -8345,8 +9332,11 @@
       <c r="I325">
         <v>15</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>653</v>
       </c>
@@ -8362,8 +9352,11 @@
       <c r="I326">
         <v>15</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>655</v>
       </c>
@@ -8391,8 +9384,11 @@
       <c r="I327">
         <v>11</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>656</v>
       </c>
@@ -8408,8 +9404,11 @@
       <c r="I328">
         <v>21</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>657</v>
       </c>
@@ -8434,8 +9433,11 @@
       <c r="I329">
         <v>56</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>658</v>
       </c>
@@ -8451,8 +9453,11 @@
       <c r="I330">
         <v>10</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>659</v>
       </c>
@@ -8477,8 +9482,11 @@
       <c r="I331">
         <v>15</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>660</v>
       </c>
@@ -8494,8 +9502,11 @@
       <c r="I332">
         <v>5</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>661</v>
       </c>
@@ -8523,8 +9534,11 @@
       <c r="I333">
         <v>16</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>662</v>
       </c>
@@ -8552,8 +9566,11 @@
       <c r="I334">
         <v>63</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>663</v>
       </c>
@@ -8581,8 +9598,11 @@
       <c r="I335">
         <v>39</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>664</v>
       </c>
@@ -8610,8 +9630,11 @@
       <c r="I336">
         <v>19</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>665</v>
       </c>
@@ -8639,8 +9662,11 @@
       <c r="I337">
         <v>84</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>666</v>
       </c>
@@ -8668,8 +9694,11 @@
       <c r="I338">
         <v>18</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>667</v>
       </c>
@@ -8697,8 +9726,11 @@
       <c r="I339">
         <v>72</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>668</v>
       </c>
@@ -8726,8 +9758,11 @@
       <c r="I340">
         <v>29</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>669</v>
       </c>
@@ -8755,8 +9790,11 @@
       <c r="I341">
         <v>29</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>670</v>
       </c>
@@ -8784,8 +9822,11 @@
       <c r="I342">
         <v>50</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>671</v>
       </c>
@@ -8813,8 +9854,11 @@
       <c r="I343">
         <v>11</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>672</v>
       </c>
@@ -8842,8 +9886,11 @@
       <c r="I344">
         <v>11</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>675</v>
       </c>
@@ -8871,8 +9918,11 @@
       <c r="I345">
         <v>62</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J345" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>678</v>
       </c>
@@ -8900,8 +9950,11 @@
       <c r="I346">
         <v>27</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>679</v>
       </c>
@@ -8929,8 +9982,11 @@
       <c r="I347">
         <v>17</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>680</v>
       </c>
@@ -8958,8 +10014,11 @@
       <c r="I348">
         <v>24</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>681</v>
       </c>
@@ -8987,8 +10046,11 @@
       <c r="I349">
         <v>24</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>682</v>
       </c>
@@ -9016,8 +10078,11 @@
       <c r="I350">
         <v>9</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>683</v>
       </c>
@@ -9045,8 +10110,11 @@
       <c r="I351">
         <v>15</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>684</v>
       </c>
@@ -9074,8 +10142,11 @@
       <c r="I352">
         <v>17</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>685</v>
       </c>
@@ -9103,8 +10174,11 @@
       <c r="I353">
         <v>75</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>686</v>
       </c>
@@ -9132,8 +10206,11 @@
       <c r="I354">
         <v>16</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>687</v>
       </c>
@@ -9161,8 +10238,11 @@
       <c r="I355">
         <v>36</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>688</v>
       </c>
@@ -9190,8 +10270,11 @@
       <c r="I356">
         <v>36</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>689</v>
       </c>
@@ -9219,8 +10302,11 @@
       <c r="I357">
         <v>6</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>690</v>
       </c>
@@ -9248,8 +10334,11 @@
       <c r="I358">
         <v>55</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>691</v>
       </c>
@@ -9277,8 +10366,11 @@
       <c r="I359">
         <v>40</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>692</v>
       </c>
@@ -9306,8 +10398,11 @@
       <c r="I360">
         <v>57</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>694</v>
       </c>
@@ -9335,8 +10430,11 @@
       <c r="I361">
         <v>25</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>697</v>
       </c>
@@ -9364,8 +10462,11 @@
       <c r="I362">
         <v>33</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J362" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>699</v>
       </c>
@@ -9393,8 +10494,11 @@
       <c r="I363">
         <v>11</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J363" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>700</v>
       </c>
@@ -9422,8 +10526,11 @@
       <c r="I364">
         <v>16</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J364" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>702</v>
       </c>
@@ -9451,8 +10558,11 @@
       <c r="I365">
         <v>11</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J365" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>703</v>
       </c>
@@ -9480,8 +10590,11 @@
       <c r="I366">
         <v>50</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J366" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>704</v>
       </c>
@@ -9509,8 +10622,11 @@
       <c r="I367">
         <v>50</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J367" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>706</v>
       </c>
@@ -9538,8 +10654,11 @@
       <c r="I368">
         <v>18</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J368" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>707</v>
       </c>
@@ -9567,8 +10686,11 @@
       <c r="I369">
         <v>34</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J369" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>708</v>
       </c>
@@ -9596,8 +10718,11 @@
       <c r="I370">
         <v>34</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J370" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>710</v>
       </c>
@@ -9625,8 +10750,11 @@
       <c r="I371">
         <v>11</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J371" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>713</v>
       </c>
@@ -9654,8 +10782,11 @@
       <c r="I372">
         <v>18</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J372" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>716</v>
       </c>
@@ -9683,8 +10814,11 @@
       <c r="I373">
         <v>59</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J373" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>717</v>
       </c>
@@ -9712,8 +10846,11 @@
       <c r="I374">
         <v>59</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J374" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>718</v>
       </c>
@@ -9741,8 +10878,11 @@
       <c r="I375">
         <v>14</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J375" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>719</v>
       </c>
@@ -9770,8 +10910,11 @@
       <c r="I376">
         <v>15</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J376" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>720</v>
       </c>
@@ -9799,8 +10942,11 @@
       <c r="I377">
         <v>20</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J377" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>721</v>
       </c>
@@ -9819,8 +10965,11 @@
       <c r="I378">
         <v>50</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J378" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>722</v>
       </c>
@@ -9839,8 +10988,11 @@
       <c r="I379">
         <v>50</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J379" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>723</v>
       </c>
@@ -9859,8 +11011,11 @@
       <c r="I380">
         <v>50</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J380" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>724</v>
       </c>
@@ -9888,8 +11043,11 @@
       <c r="I381">
         <v>32</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J381" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>725</v>
       </c>
@@ -9908,8 +11066,11 @@
       <c r="I382">
         <v>23</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J382" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>726</v>
       </c>
@@ -9928,8 +11089,11 @@
       <c r="I383">
         <v>27</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J383" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>727</v>
       </c>
@@ -9948,8 +11112,11 @@
       <c r="I384">
         <v>14</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J384" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>729</v>
       </c>
@@ -9977,8 +11144,11 @@
       <c r="I385">
         <v>17</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J385" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>731</v>
       </c>
@@ -10006,8 +11176,11 @@
       <c r="I386">
         <v>14</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J386" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>733</v>
       </c>
@@ -10035,8 +11208,11 @@
       <c r="I387">
         <v>50</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J387" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>737</v>
       </c>
@@ -10055,8 +11231,11 @@
       <c r="I388">
         <v>9</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J388" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>738</v>
       </c>
@@ -10075,8 +11254,11 @@
       <c r="I389">
         <v>30</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J389" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>740</v>
       </c>
@@ -10094,6 +11276,9 @@
       </c>
       <c r="I390">
         <v>19</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset_xlsx/symptoms2.xlsx
+++ b/Dataset_xlsx/symptoms2.xlsx
@@ -24,9 +24,6 @@
     <t>_id</t>
   </si>
   <si>
-    <t>chief_complaint_id</t>
-  </si>
-  <si>
     <t>chief_complaint_name_id</t>
   </si>
   <si>
@@ -1222,6 +1219,9 @@
   </si>
   <si>
     <t>Inferiore</t>
+  </si>
+  <si>
+    <t>cid</t>
   </si>
 </sst>
 </file>
@@ -1565,41 +1565,46 @@
   <dimension ref="A1:J390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1613,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>15453</v>
@@ -1631,7 +1636,7 @@
         <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1645,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>15453</v>
@@ -1660,7 +1665,7 @@
         <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1674,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>15452</v>
@@ -1692,7 +1697,7 @@
         <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1706,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>15452</v>
@@ -1721,7 +1726,7 @@
         <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1735,13 +1740,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1755,13 +1760,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,7 +1780,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>11450</v>
@@ -1793,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1807,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>11450</v>
@@ -1822,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1836,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>11000</v>
@@ -1851,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1865,7 +1870,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>11000</v>
@@ -1880,7 +1885,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1894,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>11000</v>
@@ -1909,7 +1914,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1923,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>19451</v>
@@ -1941,7 +1946,7 @@
         <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1955,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>19051</v>
@@ -1973,7 +1978,7 @@
         <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1987,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>19051</v>
@@ -2002,7 +2007,7 @@
         <v>66</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2016,13 +2021,13 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2036,13 +2041,13 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2056,13 +2061,13 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18">
         <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2076,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>15802</v>
@@ -2091,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2105,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>15802</v>
@@ -2123,7 +2128,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2137,13 +2142,13 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21">
         <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2157,7 +2162,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>18000</v>
@@ -2175,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2189,13 +2194,13 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23">
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2209,13 +2214,13 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24">
         <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2229,7 +2234,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>10502</v>
@@ -2244,7 +2249,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2258,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>10050</v>
@@ -2276,7 +2281,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2290,7 +2295,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>10050</v>
@@ -2305,7 +2310,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2319,7 +2324,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>10050</v>
@@ -2334,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2348,7 +2353,7 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>11650</v>
@@ -2366,7 +2371,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2380,7 +2385,7 @@
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>15900</v>
@@ -2398,7 +2403,7 @@
         <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2412,7 +2417,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>15900</v>
@@ -2427,7 +2432,7 @@
         <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2441,7 +2446,7 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>14400</v>
@@ -2459,7 +2464,7 @@
         <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2473,13 +2478,13 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33">
         <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2493,13 +2498,13 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I34">
         <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2513,7 +2518,7 @@
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>11100</v>
@@ -2531,7 +2536,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2545,7 +2550,7 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>15950</v>
@@ -2563,7 +2568,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2577,7 +2582,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37">
         <v>12250</v>
@@ -2595,7 +2600,7 @@
         <v>75</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2609,7 +2614,7 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38">
         <v>12250</v>
@@ -2627,7 +2632,7 @@
         <v>75</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2641,13 +2646,13 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39">
         <v>18</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2661,7 +2666,7 @@
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40">
         <v>13650</v>
@@ -2679,7 +2684,7 @@
         <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2693,7 +2698,7 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41">
         <v>13551</v>
@@ -2711,7 +2716,7 @@
         <v>39</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2725,7 +2730,7 @@
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>19501</v>
@@ -2743,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2757,13 +2762,13 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43">
         <v>27</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2777,7 +2782,7 @@
         <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44">
         <v>10460</v>
@@ -2792,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2806,7 +2811,7 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <v>10300</v>
@@ -2824,7 +2829,7 @@
         <v>47</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2838,7 +2843,7 @@
         <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>10300</v>
@@ -2856,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2870,7 +2875,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47">
         <v>10300</v>
@@ -2888,7 +2893,7 @@
         <v>47</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2902,7 +2907,7 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48">
         <v>10100</v>
@@ -2920,7 +2925,7 @@
         <v>47</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2934,7 +2939,7 @@
         <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49">
         <v>10100</v>
@@ -2949,7 +2954,7 @@
         <v>47</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2963,13 +2968,13 @@
         <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I50">
         <v>35</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2983,13 +2988,13 @@
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I51">
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3003,7 +3008,7 @@
         <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52">
         <v>16701</v>
@@ -3018,7 +3023,7 @@
         <v>26</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3032,7 +3037,7 @@
         <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <v>16701</v>
@@ -3047,7 +3052,7 @@
         <v>26</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3061,7 +3066,7 @@
         <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>16450</v>
@@ -3076,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3090,13 +3095,13 @@
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I55">
         <v>27</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3110,7 +3115,7 @@
         <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56">
         <v>10801</v>
@@ -3128,7 +3133,7 @@
         <v>32</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3142,7 +3147,7 @@
         <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57">
         <v>10552</v>
@@ -3160,7 +3165,7 @@
         <v>45</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3174,7 +3179,7 @@
         <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58">
         <v>11550</v>
@@ -3192,7 +3197,7 @@
         <v>18</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3206,7 +3211,7 @@
         <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59">
         <v>19601</v>
@@ -3224,7 +3229,7 @@
         <v>50</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3238,13 +3243,13 @@
         <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I60">
         <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3258,7 +3263,7 @@
         <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61">
         <v>12100</v>
@@ -3276,7 +3281,7 @@
         <v>71</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3290,7 +3295,7 @@
         <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62">
         <v>12100</v>
@@ -3305,7 +3310,7 @@
         <v>71</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3319,13 +3324,13 @@
         <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I63">
         <v>9</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3339,13 +3344,13 @@
         <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I64">
         <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3359,13 +3364,13 @@
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I65">
         <v>25</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3379,13 +3384,13 @@
         <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I66">
         <v>8</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3399,13 +3404,13 @@
         <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I67">
         <v>8</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3419,13 +3424,13 @@
         <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I68">
         <v>16</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3439,13 +3444,13 @@
         <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I69">
         <v>8</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3459,13 +3464,13 @@
         <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I70">
         <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3479,7 +3484,7 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71">
         <v>16551</v>
@@ -3497,7 +3502,7 @@
         <v>21</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3511,7 +3516,7 @@
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E72">
         <v>16551</v>
@@ -3526,7 +3531,7 @@
         <v>21</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3540,13 +3545,13 @@
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I73">
         <v>13</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3560,13 +3565,13 @@
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I74">
         <v>13</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3580,7 +3585,7 @@
         <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75">
         <v>11351</v>
@@ -3598,7 +3603,7 @@
         <v>26</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3612,7 +3617,7 @@
         <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>18702</v>
@@ -3630,7 +3635,7 @@
         <v>39</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3644,13 +3649,13 @@
         <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I77">
         <v>24</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3664,7 +3669,7 @@
         <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E78">
         <v>16701</v>
@@ -3682,7 +3687,7 @@
         <v>25</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3696,7 +3701,7 @@
         <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E79">
         <v>19251</v>
@@ -3711,7 +3716,7 @@
         <v>21</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3725,13 +3730,13 @@
         <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I80">
         <v>17</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3745,7 +3750,7 @@
         <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E81">
         <v>19201</v>
@@ -3763,7 +3768,7 @@
         <v>62</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3777,7 +3782,7 @@
         <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82">
         <v>10351</v>
@@ -3795,7 +3800,7 @@
         <v>27</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3809,7 +3814,7 @@
         <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83">
         <v>10351</v>
@@ -3824,7 +3829,7 @@
         <v>27</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3838,13 +3843,13 @@
         <v>98</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I84">
         <v>21</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3858,13 +3863,13 @@
         <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85">
         <v>17</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3878,13 +3883,13 @@
         <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I86">
         <v>21</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3898,13 +3903,13 @@
         <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I87">
         <v>21</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3918,13 +3923,13 @@
         <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I88">
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3938,7 +3943,7 @@
         <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E89">
         <v>14051</v>
@@ -3953,7 +3958,7 @@
         <v>24</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3967,7 +3972,7 @@
         <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90">
         <v>14051</v>
@@ -3985,7 +3990,7 @@
         <v>24</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3999,13 +4004,13 @@
         <v>106</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I91">
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4019,7 +4024,7 @@
         <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E92">
         <v>15250</v>
@@ -4037,7 +4042,7 @@
         <v>56</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4051,7 +4056,7 @@
         <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93">
         <v>19001</v>
@@ -4069,7 +4074,7 @@
         <v>42</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4083,13 +4088,13 @@
         <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I94">
         <v>13</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4103,13 +4108,13 @@
         <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I95">
         <v>13</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4123,13 +4128,13 @@
         <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I96">
         <v>36</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4143,13 +4148,13 @@
         <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I97">
         <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4163,13 +4168,13 @@
         <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I98">
         <v>36</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4183,7 +4188,7 @@
         <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E99">
         <v>10400</v>
@@ -4198,7 +4203,7 @@
         <v>16</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4212,7 +4217,7 @@
         <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E100">
         <v>10400</v>
@@ -4230,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4244,13 +4249,13 @@
         <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I101">
         <v>15</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4264,7 +4269,7 @@
         <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E102">
         <v>16500</v>
@@ -4282,7 +4287,7 @@
         <v>18</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4296,7 +4301,7 @@
         <v>118</v>
       </c>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E103">
         <v>12600</v>
@@ -4314,7 +4319,7 @@
         <v>19</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4328,7 +4333,7 @@
         <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104">
         <v>12600</v>
@@ -4343,7 +4348,7 @@
         <v>19</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4357,13 +4362,13 @@
         <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I105">
         <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4377,7 +4382,7 @@
         <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106">
         <v>17050</v>
@@ -4392,7 +4397,7 @@
         <v>9</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4406,7 +4411,7 @@
         <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E107">
         <v>17001</v>
@@ -4424,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4438,13 +4443,13 @@
         <v>123</v>
       </c>
       <c r="D108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I108">
         <v>23</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4458,13 +4463,13 @@
         <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I109">
         <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4478,13 +4483,13 @@
         <v>125</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I110">
         <v>25</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4498,13 +4503,13 @@
         <v>126</v>
       </c>
       <c r="D111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I111">
         <v>15</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4518,7 +4523,7 @@
         <v>127</v>
       </c>
       <c r="D112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E112">
         <v>18600</v>
@@ -4533,7 +4538,7 @@
         <v>62</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4547,7 +4552,7 @@
         <v>128</v>
       </c>
       <c r="D113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E113">
         <v>16051</v>
@@ -4565,7 +4570,7 @@
         <v>18</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4579,13 +4584,13 @@
         <v>129</v>
       </c>
       <c r="D114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I114">
         <v>7</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4599,7 +4604,7 @@
         <v>132</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E115">
         <v>17151</v>
@@ -4614,7 +4619,7 @@
         <v>10</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4628,13 +4633,13 @@
         <v>133</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I116">
         <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4648,7 +4653,7 @@
         <v>134</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E117">
         <v>12050</v>
@@ -4663,7 +4668,7 @@
         <v>40</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4677,7 +4682,7 @@
         <v>135</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E118">
         <v>14150</v>
@@ -4695,7 +4700,7 @@
         <v>75</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4709,7 +4714,7 @@
         <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E119">
         <v>19401</v>
@@ -4727,7 +4732,7 @@
         <v>19</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,7 +4746,7 @@
         <v>139</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E120">
         <v>14101</v>
@@ -4759,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -4773,13 +4778,13 @@
         <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I121">
         <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -4793,13 +4798,13 @@
         <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I122">
         <v>3</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -4813,7 +4818,7 @@
         <v>143</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E123">
         <v>14551</v>
@@ -4831,7 +4836,7 @@
         <v>32</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,13 +4850,13 @@
         <v>144</v>
       </c>
       <c r="D124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I124">
         <v>34</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -4865,7 +4870,7 @@
         <v>145</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -4874,7 +4879,7 @@
         <v>34</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -4888,13 +4893,13 @@
         <v>146</v>
       </c>
       <c r="D126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I126">
         <v>34</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -4908,13 +4913,13 @@
         <v>147</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I127">
         <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -4928,7 +4933,7 @@
         <v>148</v>
       </c>
       <c r="D128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E128">
         <v>11500</v>
@@ -4943,7 +4948,7 @@
         <v>21</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -4957,13 +4962,13 @@
         <v>149</v>
       </c>
       <c r="D129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I129">
         <v>4</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4977,13 +4982,13 @@
         <v>150</v>
       </c>
       <c r="D130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I130">
         <v>28</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -4997,13 +5002,13 @@
         <v>151</v>
       </c>
       <c r="D131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I131">
         <v>16</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5017,13 +5022,13 @@
         <v>152</v>
       </c>
       <c r="D132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I132">
         <v>19</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5037,13 +5042,13 @@
         <v>153</v>
       </c>
       <c r="D133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I133">
         <v>8</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5057,13 +5062,13 @@
         <v>154</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I134">
         <v>8</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5077,13 +5082,13 @@
         <v>155</v>
       </c>
       <c r="D135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I135">
         <v>9</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5097,13 +5102,13 @@
         <v>156</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I136">
         <v>8</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5117,7 +5122,7 @@
         <v>157</v>
       </c>
       <c r="D137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E137">
         <v>10950</v>
@@ -5132,7 +5137,7 @@
         <v>29</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5146,7 +5151,7 @@
         <v>158</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E138">
         <v>17550</v>
@@ -5161,7 +5166,7 @@
         <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5175,13 +5180,13 @@
         <v>159</v>
       </c>
       <c r="D139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I139">
         <v>7</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5195,13 +5200,13 @@
         <v>160</v>
       </c>
       <c r="D140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I140">
         <v>7</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5215,7 +5220,7 @@
         <v>161</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E141">
         <v>17600</v>
@@ -5230,7 +5235,7 @@
         <v>20</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5244,13 +5249,13 @@
         <v>162</v>
       </c>
       <c r="D142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I142">
         <v>5</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5264,13 +5269,13 @@
         <v>163</v>
       </c>
       <c r="D143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I143">
         <v>11</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5284,13 +5289,13 @@
         <v>164</v>
       </c>
       <c r="D144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I144">
         <v>19</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5304,13 +5309,13 @@
         <v>165</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I145">
         <v>19</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5324,7 +5329,7 @@
         <v>167</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E146">
         <v>13052</v>
@@ -5339,7 +5344,7 @@
         <v>56</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -5353,7 +5358,7 @@
         <v>168</v>
       </c>
       <c r="D147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E147">
         <v>13052</v>
@@ -5368,7 +5373,7 @@
         <v>56</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -5382,7 +5387,7 @@
         <v>169</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E148">
         <v>15300</v>
@@ -5400,7 +5405,7 @@
         <v>59</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -5414,7 +5419,7 @@
         <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E149">
         <v>10200</v>
@@ -5432,7 +5437,7 @@
         <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -5446,13 +5451,13 @@
         <v>171</v>
       </c>
       <c r="D150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I150">
         <v>26</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -5466,7 +5471,7 @@
         <v>172</v>
       </c>
       <c r="D151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E151">
         <v>10150</v>
@@ -5484,7 +5489,7 @@
         <v>50</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -5498,13 +5503,13 @@
         <v>175</v>
       </c>
       <c r="D152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I152">
         <v>19</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -5518,7 +5523,7 @@
         <v>185</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E153">
         <v>14551</v>
@@ -5533,7 +5538,7 @@
         <v>29</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -5547,7 +5552,7 @@
         <v>186</v>
       </c>
       <c r="D154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E154">
         <v>12000</v>
@@ -5565,7 +5570,7 @@
         <v>34</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -5579,13 +5584,13 @@
         <v>188</v>
       </c>
       <c r="D155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I155">
         <v>35</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -5599,7 +5604,7 @@
         <v>191</v>
       </c>
       <c r="D156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E156">
         <v>10300</v>
@@ -5617,7 +5622,7 @@
         <v>47</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -5631,7 +5636,7 @@
         <v>192</v>
       </c>
       <c r="D157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E157">
         <v>17151</v>
@@ -5649,7 +5654,7 @@
         <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -5663,7 +5668,7 @@
         <v>195</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E158">
         <v>11100</v>
@@ -5678,7 +5683,7 @@
         <v>29</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -5692,13 +5697,13 @@
         <v>196</v>
       </c>
       <c r="D159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I159">
         <v>7</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -5712,13 +5717,13 @@
         <v>200</v>
       </c>
       <c r="D160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I160">
         <v>16</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -5732,7 +5737,7 @@
         <v>201</v>
       </c>
       <c r="D161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E161">
         <v>14250</v>
@@ -5750,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -5764,13 +5769,13 @@
         <v>203</v>
       </c>
       <c r="D162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I162">
         <v>16</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -5784,13 +5789,13 @@
         <v>204</v>
       </c>
       <c r="D163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I163">
         <v>13</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -5804,7 +5809,7 @@
         <v>208</v>
       </c>
       <c r="D164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E164">
         <v>11650</v>
@@ -5822,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -5836,13 +5841,13 @@
         <v>211</v>
       </c>
       <c r="D165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I165">
         <v>29</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -5856,7 +5861,7 @@
         <v>212</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E166">
         <v>10400</v>
@@ -5871,7 +5876,7 @@
         <v>16</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -5885,13 +5890,13 @@
         <v>219</v>
       </c>
       <c r="D167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I167">
         <v>13</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -5905,13 +5910,13 @@
         <v>220</v>
       </c>
       <c r="D168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I168">
         <v>19</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -5925,7 +5930,7 @@
         <v>221</v>
       </c>
       <c r="D169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E169">
         <v>16401</v>
@@ -5943,7 +5948,7 @@
         <v>16</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -5957,13 +5962,13 @@
         <v>222</v>
       </c>
       <c r="D170" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I170">
         <v>15</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -5977,13 +5982,13 @@
         <v>223</v>
       </c>
       <c r="D171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I171">
         <v>12</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -5997,13 +6002,13 @@
         <v>224</v>
       </c>
       <c r="D172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I172">
         <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -6017,13 +6022,13 @@
         <v>226</v>
       </c>
       <c r="D173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I173">
         <v>8</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -6037,7 +6042,7 @@
         <v>227</v>
       </c>
       <c r="D174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E174">
         <v>11351</v>
@@ -6052,7 +6057,7 @@
         <v>26</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -6066,13 +6071,13 @@
         <v>228</v>
       </c>
       <c r="D175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I175">
         <v>17</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -6086,13 +6091,13 @@
         <v>230</v>
       </c>
       <c r="D176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I176">
         <v>20</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -6106,13 +6111,13 @@
         <v>232</v>
       </c>
       <c r="D177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I177">
         <v>12</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -6126,13 +6131,13 @@
         <v>233</v>
       </c>
       <c r="D178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I178">
         <v>14</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -6146,13 +6151,13 @@
         <v>234</v>
       </c>
       <c r="D179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I179">
         <v>9</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -6166,13 +6171,13 @@
         <v>235</v>
       </c>
       <c r="D180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I180">
         <v>10</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6186,13 +6191,13 @@
         <v>236</v>
       </c>
       <c r="D181" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I181">
         <v>13</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6206,13 +6211,13 @@
         <v>237</v>
       </c>
       <c r="D182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I182">
         <v>18</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -6226,13 +6231,13 @@
         <v>240</v>
       </c>
       <c r="D183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I183">
         <v>8</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -6246,13 +6251,13 @@
         <v>241</v>
       </c>
       <c r="D184" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I184">
         <v>13</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -6266,13 +6271,13 @@
         <v>242</v>
       </c>
       <c r="D185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I185">
         <v>24</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -6286,13 +6291,13 @@
         <v>243</v>
       </c>
       <c r="D186" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I186">
         <v>24</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -6306,13 +6311,13 @@
         <v>244</v>
       </c>
       <c r="D187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I187">
         <v>24</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -6326,13 +6331,13 @@
         <v>245</v>
       </c>
       <c r="D188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I188">
         <v>24</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -6346,13 +6351,13 @@
         <v>246</v>
       </c>
       <c r="D189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I189">
         <v>34</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -6366,13 +6371,13 @@
         <v>247</v>
       </c>
       <c r="D190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I190">
         <v>11</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -6386,7 +6391,7 @@
         <v>251</v>
       </c>
       <c r="D191" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E191">
         <v>13052</v>
@@ -6401,7 +6406,7 @@
         <v>56</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -6415,13 +6420,13 @@
         <v>252</v>
       </c>
       <c r="D192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I192">
         <v>27</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -6435,13 +6440,13 @@
         <v>253</v>
       </c>
       <c r="D193" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I193">
         <v>16</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -6455,13 +6460,13 @@
         <v>254</v>
       </c>
       <c r="D194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I194">
         <v>16</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -6475,13 +6480,13 @@
         <v>255</v>
       </c>
       <c r="D195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I195">
         <v>22</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -6495,13 +6500,13 @@
         <v>256</v>
       </c>
       <c r="D196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I196">
         <v>30</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -6515,13 +6520,13 @@
         <v>257</v>
       </c>
       <c r="D197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I197">
         <v>13</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -6535,13 +6540,13 @@
         <v>259</v>
       </c>
       <c r="D198" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I198">
         <v>28</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -6555,13 +6560,13 @@
         <v>260</v>
       </c>
       <c r="D199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I199">
         <v>17</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -6575,13 +6580,13 @@
         <v>261</v>
       </c>
       <c r="D200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I200">
         <v>16</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -6595,13 +6600,13 @@
         <v>262</v>
       </c>
       <c r="D201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I201">
         <v>21</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -6615,13 +6620,13 @@
         <v>266</v>
       </c>
       <c r="D202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I202">
         <v>12</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -6635,13 +6640,13 @@
         <v>267</v>
       </c>
       <c r="D203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I203">
         <v>10</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -6655,13 +6660,13 @@
         <v>269</v>
       </c>
       <c r="D204" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I204">
         <v>16</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -6675,13 +6680,13 @@
         <v>270</v>
       </c>
       <c r="D205" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I205">
         <v>4</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -6695,13 +6700,13 @@
         <v>271</v>
       </c>
       <c r="D206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I206">
         <v>16</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -6715,13 +6720,13 @@
         <v>272</v>
       </c>
       <c r="D207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I207">
         <v>17</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -6735,13 +6740,13 @@
         <v>275</v>
       </c>
       <c r="D208" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I208">
         <v>16</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -6755,13 +6760,13 @@
         <v>276</v>
       </c>
       <c r="D209" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I209">
         <v>30</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -6775,13 +6780,13 @@
         <v>277</v>
       </c>
       <c r="D210" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I210">
         <v>18</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -6795,13 +6800,13 @@
         <v>278</v>
       </c>
       <c r="D211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I211">
         <v>18</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -6815,13 +6820,13 @@
         <v>279</v>
       </c>
       <c r="D212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I212">
         <v>30</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -6835,13 +6840,13 @@
         <v>280</v>
       </c>
       <c r="D213" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I213">
         <v>30</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -6855,13 +6860,13 @@
         <v>281</v>
       </c>
       <c r="D214" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I214">
         <v>30</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -6875,13 +6880,13 @@
         <v>283</v>
       </c>
       <c r="D215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I215">
         <v>8</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -6895,13 +6900,13 @@
         <v>284</v>
       </c>
       <c r="D216" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I216">
         <v>19</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -6915,13 +6920,13 @@
         <v>285</v>
       </c>
       <c r="D217" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I217">
         <v>19</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -6935,13 +6940,13 @@
         <v>286</v>
       </c>
       <c r="D218" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I218">
         <v>19</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -6955,13 +6960,13 @@
         <v>287</v>
       </c>
       <c r="D219" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I219">
         <v>12</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -6975,13 +6980,13 @@
         <v>288</v>
       </c>
       <c r="D220" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I220">
         <v>12</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -6995,13 +7000,13 @@
         <v>289</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I221">
         <v>14</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -7015,13 +7020,13 @@
         <v>290</v>
       </c>
       <c r="D222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I222">
         <v>14</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -7035,13 +7040,13 @@
         <v>291</v>
       </c>
       <c r="D223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I223">
         <v>14</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -7055,13 +7060,13 @@
         <v>292</v>
       </c>
       <c r="D224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I224">
         <v>14</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -7075,13 +7080,13 @@
         <v>293</v>
       </c>
       <c r="D225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I225">
         <v>12</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -7095,13 +7100,13 @@
         <v>294</v>
       </c>
       <c r="D226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I226">
         <v>12</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -7115,13 +7120,13 @@
         <v>295</v>
       </c>
       <c r="D227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I227">
         <v>13</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -7135,7 +7140,7 @@
         <v>296</v>
       </c>
       <c r="D228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E228">
         <v>10351</v>
@@ -7150,7 +7155,7 @@
         <v>27</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -7164,13 +7169,13 @@
         <v>298</v>
       </c>
       <c r="D229" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I229">
         <v>22</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -7184,13 +7189,13 @@
         <v>299</v>
       </c>
       <c r="D230" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I230">
         <v>22</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -7204,13 +7209,13 @@
         <v>300</v>
       </c>
       <c r="D231" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I231">
         <v>8</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -7224,13 +7229,13 @@
         <v>301</v>
       </c>
       <c r="D232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I232">
         <v>8</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -7244,13 +7249,13 @@
         <v>302</v>
       </c>
       <c r="D233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I233">
         <v>5</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -7264,7 +7269,7 @@
         <v>303</v>
       </c>
       <c r="D234" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E234">
         <v>16500</v>
@@ -7279,7 +7284,7 @@
         <v>18</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -7293,7 +7298,7 @@
         <v>304</v>
       </c>
       <c r="D235" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E235">
         <v>16500</v>
@@ -7308,7 +7313,7 @@
         <v>18</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -7322,13 +7327,13 @@
         <v>305</v>
       </c>
       <c r="D236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I236">
         <v>5</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -7342,13 +7347,13 @@
         <v>306</v>
       </c>
       <c r="D237" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I237">
         <v>19</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -7362,13 +7367,13 @@
         <v>308</v>
       </c>
       <c r="D238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I238">
         <v>27</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -7382,13 +7387,13 @@
         <v>309</v>
       </c>
       <c r="D239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I239">
         <v>27</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -7402,7 +7407,7 @@
         <v>310</v>
       </c>
       <c r="D240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E240">
         <v>10460</v>
@@ -7420,7 +7425,7 @@
         <v>15</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -7434,13 +7439,13 @@
         <v>312</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I241">
         <v>10</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -7454,13 +7459,13 @@
         <v>317</v>
       </c>
       <c r="D242" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I242">
         <v>16</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -7474,7 +7479,7 @@
         <v>318</v>
       </c>
       <c r="D243" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E243">
         <v>11351</v>
@@ -7489,7 +7494,7 @@
         <v>26</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -7503,13 +7508,13 @@
         <v>319</v>
       </c>
       <c r="D244" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I244">
         <v>21</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -7523,13 +7528,13 @@
         <v>320</v>
       </c>
       <c r="D245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I245">
         <v>21</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -7543,7 +7548,7 @@
         <v>321</v>
       </c>
       <c r="D246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E246">
         <v>14051</v>
@@ -7558,7 +7563,7 @@
         <v>24</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -7572,13 +7577,13 @@
         <v>322</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I247">
         <v>12</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -7592,13 +7597,13 @@
         <v>323</v>
       </c>
       <c r="D248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I248">
         <v>8</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -7612,7 +7617,7 @@
         <v>325</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E249">
         <v>11500</v>
@@ -7630,7 +7635,7 @@
         <v>21</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -7644,7 +7649,7 @@
         <v>326</v>
       </c>
       <c r="D250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E250">
         <v>10950</v>
@@ -7662,7 +7667,7 @@
         <v>29</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -7676,7 +7681,7 @@
         <v>327</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E251">
         <v>13052</v>
@@ -7691,7 +7696,7 @@
         <v>56</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -7705,7 +7710,7 @@
         <v>328</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E252">
         <v>15300</v>
@@ -7720,7 +7725,7 @@
         <v>59</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -7734,7 +7739,7 @@
         <v>329</v>
       </c>
       <c r="D253" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E253">
         <v>17300</v>
@@ -7749,7 +7754,7 @@
         <v>19</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -7763,7 +7768,7 @@
         <v>330</v>
       </c>
       <c r="D254" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -7772,7 +7777,7 @@
         <v>9</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -7786,13 +7791,13 @@
         <v>332</v>
       </c>
       <c r="D255" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I255">
         <v>11</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -7806,13 +7811,13 @@
         <v>333</v>
       </c>
       <c r="D256" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I256">
         <v>11</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -7826,13 +7831,13 @@
         <v>334</v>
       </c>
       <c r="D257" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I257">
         <v>11</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -7846,13 +7851,13 @@
         <v>335</v>
       </c>
       <c r="D258" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I258">
         <v>11</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -7866,7 +7871,7 @@
         <v>336</v>
       </c>
       <c r="D259" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -7875,7 +7880,7 @@
         <v>13</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -7889,7 +7894,7 @@
         <v>338</v>
       </c>
       <c r="D260" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -7898,7 +7903,7 @@
         <v>21</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -7912,13 +7917,13 @@
         <v>340</v>
       </c>
       <c r="D261" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I261">
         <v>15</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -7932,13 +7937,13 @@
         <v>341</v>
       </c>
       <c r="D262" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I262">
         <v>15</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -7952,13 +7957,13 @@
         <v>342</v>
       </c>
       <c r="D263" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I263">
         <v>15</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -7972,13 +7977,13 @@
         <v>343</v>
       </c>
       <c r="D264" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I264">
         <v>11</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -7992,13 +7997,13 @@
         <v>344</v>
       </c>
       <c r="D265" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I265">
         <v>11</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -8012,13 +8017,13 @@
         <v>345</v>
       </c>
       <c r="D266" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I266">
         <v>11</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -8032,13 +8037,13 @@
         <v>346</v>
       </c>
       <c r="D267" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I267">
         <v>29</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -8052,13 +8057,13 @@
         <v>347</v>
       </c>
       <c r="D268" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I268">
         <v>29</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -8072,13 +8077,13 @@
         <v>348</v>
       </c>
       <c r="D269" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I269">
         <v>9</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -8092,7 +8097,7 @@
         <v>352</v>
       </c>
       <c r="D270" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E270">
         <v>17300</v>
@@ -8107,7 +8112,7 @@
         <v>19</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -8121,7 +8126,7 @@
         <v>353</v>
       </c>
       <c r="D271" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E271">
         <v>17300</v>
@@ -8136,7 +8141,7 @@
         <v>19</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -8150,7 +8155,7 @@
         <v>354</v>
       </c>
       <c r="D272" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E272">
         <v>17300</v>
@@ -8165,7 +8170,7 @@
         <v>19</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -8179,13 +8184,13 @@
         <v>355</v>
       </c>
       <c r="D273" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I273">
         <v>13</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -8199,13 +8204,13 @@
         <v>356</v>
       </c>
       <c r="D274" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I274">
         <v>13</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -8219,13 +8224,13 @@
         <v>357</v>
       </c>
       <c r="D275" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I275">
         <v>6</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -8239,7 +8244,7 @@
         <v>360</v>
       </c>
       <c r="D276" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E276">
         <v>14150</v>
@@ -8257,7 +8262,7 @@
         <v>75</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -8271,7 +8276,7 @@
         <v>363</v>
       </c>
       <c r="D277" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E277">
         <v>19455</v>
@@ -8289,7 +8294,7 @@
         <v>16</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -8303,7 +8308,7 @@
         <v>364</v>
       </c>
       <c r="D278" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E278">
         <v>19205</v>
@@ -8318,7 +8323,7 @@
         <v>19</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -8332,7 +8337,7 @@
         <v>365</v>
       </c>
       <c r="D279" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E279">
         <v>19205</v>
@@ -8350,7 +8355,7 @@
         <v>19</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -8364,13 +8369,13 @@
         <v>368</v>
       </c>
       <c r="D280" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I280">
         <v>7</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -8384,7 +8389,7 @@
         <v>369</v>
       </c>
       <c r="D281" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E281">
         <v>19605</v>
@@ -8399,7 +8404,7 @@
         <v>18</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -8413,13 +8418,13 @@
         <v>371</v>
       </c>
       <c r="D282" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I282">
         <v>15</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -8433,7 +8438,7 @@
         <v>373</v>
       </c>
       <c r="D283" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E283">
         <v>15801</v>
@@ -8448,7 +8453,7 @@
         <v>16</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -8462,13 +8467,13 @@
         <v>374</v>
       </c>
       <c r="D284" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I284">
         <v>18</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -8482,13 +8487,13 @@
         <v>377</v>
       </c>
       <c r="D285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I285">
         <v>7</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -8502,13 +8507,13 @@
         <v>378</v>
       </c>
       <c r="D286" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I286">
         <v>7</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -8522,13 +8527,13 @@
         <v>379</v>
       </c>
       <c r="D287" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I287">
         <v>7</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -8542,13 +8547,13 @@
         <v>380</v>
       </c>
       <c r="D288" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I288">
         <v>7</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -8562,13 +8567,13 @@
         <v>383</v>
       </c>
       <c r="D289" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I289">
         <v>27</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -8582,13 +8587,13 @@
         <v>384</v>
       </c>
       <c r="D290" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I290">
         <v>36</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -8602,13 +8607,13 @@
         <v>385</v>
       </c>
       <c r="D291" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I291">
         <v>40</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -8622,13 +8627,13 @@
         <v>386</v>
       </c>
       <c r="D292" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I292">
         <v>36</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -8642,13 +8647,13 @@
         <v>387</v>
       </c>
       <c r="D293" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I293">
         <v>37</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -8662,13 +8667,13 @@
         <v>388</v>
       </c>
       <c r="D294" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I294">
         <v>29</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -8682,13 +8687,13 @@
         <v>389</v>
       </c>
       <c r="D295" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I295">
         <v>29</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -8702,13 +8707,13 @@
         <v>390</v>
       </c>
       <c r="D296" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I296">
         <v>10</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -8722,13 +8727,13 @@
         <v>391</v>
       </c>
       <c r="D297" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I297">
         <v>26</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -8742,13 +8747,13 @@
         <v>392</v>
       </c>
       <c r="D298" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I298">
         <v>26</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -8762,13 +8767,13 @@
         <v>393</v>
       </c>
       <c r="D299" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I299">
         <v>16</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -8782,13 +8787,13 @@
         <v>394</v>
       </c>
       <c r="D300" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I300">
         <v>16</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -8802,13 +8807,13 @@
         <v>395</v>
       </c>
       <c r="D301" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I301">
         <v>17</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -8822,7 +8827,7 @@
         <v>396</v>
       </c>
       <c r="D302" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E302">
         <v>14000</v>
@@ -8837,7 +8842,7 @@
         <v>15</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -8851,7 +8856,7 @@
         <v>398</v>
       </c>
       <c r="D303" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E303">
         <v>14000</v>
@@ -8866,7 +8871,7 @@
         <v>15</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -8880,13 +8885,13 @@
         <v>399</v>
       </c>
       <c r="D304" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I304">
         <v>14</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -8900,7 +8905,7 @@
         <v>400</v>
       </c>
       <c r="D305" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E305">
         <v>18650</v>
@@ -8915,7 +8920,7 @@
         <v>63</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -8929,7 +8934,7 @@
         <v>401</v>
       </c>
       <c r="D306" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E306">
         <v>18650</v>
@@ -8944,7 +8949,7 @@
         <v>63</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -8958,13 +8963,13 @@
         <v>403</v>
       </c>
       <c r="D307" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I307">
         <v>29</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -8978,13 +8983,13 @@
         <v>404</v>
       </c>
       <c r="D308" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I308">
         <v>31</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -8998,13 +9003,13 @@
         <v>405</v>
       </c>
       <c r="D309" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I309">
         <v>31</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -9018,13 +9023,13 @@
         <v>406</v>
       </c>
       <c r="D310" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I310">
         <v>26</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -9038,13 +9043,13 @@
         <v>407</v>
       </c>
       <c r="D311" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I311">
         <v>26</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -9058,13 +9063,13 @@
         <v>408</v>
       </c>
       <c r="D312" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I312">
         <v>26</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -9078,13 +9083,13 @@
         <v>409</v>
       </c>
       <c r="D313" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I313">
         <v>13</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -9098,13 +9103,13 @@
         <v>411</v>
       </c>
       <c r="D314" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I314">
         <v>4</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -9118,13 +9123,13 @@
         <v>412</v>
       </c>
       <c r="D315" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I315">
         <v>10</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -9138,13 +9143,13 @@
         <v>413</v>
       </c>
       <c r="D316" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I316">
         <v>17</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -9158,13 +9163,13 @@
         <v>414</v>
       </c>
       <c r="D317" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I317">
         <v>14</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -9178,13 +9183,13 @@
         <v>415</v>
       </c>
       <c r="D318" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I318">
         <v>10</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -9198,13 +9203,13 @@
         <v>416</v>
       </c>
       <c r="D319" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I319">
         <v>10</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -9218,13 +9223,13 @@
         <v>417</v>
       </c>
       <c r="D320" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I320">
         <v>7</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -9238,13 +9243,13 @@
         <v>418</v>
       </c>
       <c r="D321" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I321">
         <v>8</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -9258,13 +9263,13 @@
         <v>419</v>
       </c>
       <c r="D322" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I322">
         <v>12</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -9278,13 +9283,13 @@
         <v>420</v>
       </c>
       <c r="D323" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I323">
         <v>5</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -9298,7 +9303,7 @@
         <v>422</v>
       </c>
       <c r="D324" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E324">
         <v>11350</v>
@@ -9313,7 +9318,7 @@
         <v>7</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -9327,13 +9332,13 @@
         <v>424</v>
       </c>
       <c r="D325" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I325">
         <v>15</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -9347,13 +9352,13 @@
         <v>425</v>
       </c>
       <c r="D326" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I326">
         <v>15</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -9367,7 +9372,7 @@
         <v>427</v>
       </c>
       <c r="D327" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E327">
         <v>14301</v>
@@ -9385,7 +9390,7 @@
         <v>11</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -9399,13 +9404,13 @@
         <v>428</v>
       </c>
       <c r="D328" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I328">
         <v>21</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -9419,7 +9424,7 @@
         <v>429</v>
       </c>
       <c r="D329" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E329">
         <v>15250</v>
@@ -9434,7 +9439,7 @@
         <v>56</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -9448,13 +9453,13 @@
         <v>430</v>
       </c>
       <c r="D330" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I330">
         <v>10</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -9468,7 +9473,7 @@
         <v>431</v>
       </c>
       <c r="D331" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E331">
         <v>18802</v>
@@ -9483,7 +9488,7 @@
         <v>15</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -9497,13 +9502,13 @@
         <v>432</v>
       </c>
       <c r="D332" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I332">
         <v>5</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -9517,7 +9522,7 @@
         <v>433</v>
       </c>
       <c r="D333" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E333">
         <v>15801</v>
@@ -9535,7 +9540,7 @@
         <v>16</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -9549,7 +9554,7 @@
         <v>434</v>
       </c>
       <c r="D334" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E334">
         <v>18650</v>
@@ -9567,7 +9572,7 @@
         <v>63</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -9581,7 +9586,7 @@
         <v>435</v>
       </c>
       <c r="D335" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E335">
         <v>10502</v>
@@ -9599,7 +9604,7 @@
         <v>39</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -9613,7 +9618,7 @@
         <v>436</v>
       </c>
       <c r="D336" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E336">
         <v>19505</v>
@@ -9631,7 +9636,7 @@
         <v>19</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -9645,7 +9650,7 @@
         <v>437</v>
       </c>
       <c r="D337" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E337">
         <v>10501</v>
@@ -9663,7 +9668,7 @@
         <v>84</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -9677,7 +9682,7 @@
         <v>438</v>
       </c>
       <c r="D338" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E338">
         <v>18400</v>
@@ -9695,7 +9700,7 @@
         <v>18</v>
       </c>
       <c r="J338" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -9709,7 +9714,7 @@
         <v>439</v>
       </c>
       <c r="D339" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E339">
         <v>15450</v>
@@ -9727,7 +9732,7 @@
         <v>72</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -9741,7 +9746,7 @@
         <v>440</v>
       </c>
       <c r="D340" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E340">
         <v>11100</v>
@@ -9759,7 +9764,7 @@
         <v>29</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -9773,7 +9778,7 @@
         <v>441</v>
       </c>
       <c r="D341" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E341">
         <v>11100</v>
@@ -9791,7 +9796,7 @@
         <v>29</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -9805,7 +9810,7 @@
         <v>442</v>
       </c>
       <c r="D342" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E342">
         <v>10150</v>
@@ -9823,7 +9828,7 @@
         <v>50</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -9837,7 +9842,7 @@
         <v>443</v>
       </c>
       <c r="D343" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E343">
         <v>11150</v>
@@ -9855,7 +9860,7 @@
         <v>11</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -9869,7 +9874,7 @@
         <v>444</v>
       </c>
       <c r="D344" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E344">
         <v>11150</v>
@@ -9887,7 +9892,7 @@
         <v>11</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -9901,7 +9906,7 @@
         <v>447</v>
       </c>
       <c r="D345" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E345">
         <v>18600</v>
@@ -9919,7 +9924,7 @@
         <v>62</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -9933,7 +9938,7 @@
         <v>450</v>
       </c>
       <c r="D346" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E346">
         <v>10351</v>
@@ -9951,7 +9956,7 @@
         <v>27</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -9965,7 +9970,7 @@
         <v>451</v>
       </c>
       <c r="D347" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E347">
         <v>14300</v>
@@ -9983,7 +9988,7 @@
         <v>17</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -9997,7 +10002,7 @@
         <v>452</v>
       </c>
       <c r="D348" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E348">
         <v>14200</v>
@@ -10015,7 +10020,7 @@
         <v>24</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -10029,7 +10034,7 @@
         <v>453</v>
       </c>
       <c r="D349" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E349">
         <v>14200</v>
@@ -10047,7 +10052,7 @@
         <v>24</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -10061,7 +10066,7 @@
         <v>454</v>
       </c>
       <c r="D350" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E350">
         <v>13653</v>
@@ -10079,7 +10084,7 @@
         <v>9</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -10093,7 +10098,7 @@
         <v>455</v>
       </c>
       <c r="D351" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E351">
         <v>18802</v>
@@ -10111,7 +10116,7 @@
         <v>15</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -10125,7 +10130,7 @@
         <v>456</v>
       </c>
       <c r="D352" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E352">
         <v>18750</v>
@@ -10143,7 +10148,7 @@
         <v>17</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -10157,7 +10162,7 @@
         <v>457</v>
       </c>
       <c r="D353" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E353">
         <v>12250</v>
@@ -10175,7 +10180,7 @@
         <v>75</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -10189,7 +10194,7 @@
         <v>458</v>
       </c>
       <c r="D354" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E354">
         <v>14750</v>
@@ -10207,7 +10212,7 @@
         <v>16</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -10221,7 +10226,7 @@
         <v>459</v>
       </c>
       <c r="D355" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E355">
         <v>14400</v>
@@ -10239,7 +10244,7 @@
         <v>36</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -10253,7 +10258,7 @@
         <v>460</v>
       </c>
       <c r="D356" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E356">
         <v>14400</v>
@@ -10271,7 +10276,7 @@
         <v>36</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -10285,7 +10290,7 @@
         <v>461</v>
       </c>
       <c r="D357" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E357">
         <v>13500</v>
@@ -10303,7 +10308,7 @@
         <v>6</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -10317,7 +10322,7 @@
         <v>462</v>
       </c>
       <c r="D358" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E358">
         <v>19101</v>
@@ -10335,7 +10340,7 @@
         <v>55</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -10349,7 +10354,7 @@
         <v>463</v>
       </c>
       <c r="D359" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E359">
         <v>12050</v>
@@ -10367,7 +10372,7 @@
         <v>40</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -10381,7 +10386,7 @@
         <v>464</v>
       </c>
       <c r="D360" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E360">
         <v>11650</v>
@@ -10399,7 +10404,7 @@
         <v>57</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -10413,7 +10418,7 @@
         <v>466</v>
       </c>
       <c r="D361" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E361">
         <v>16403</v>
@@ -10431,7 +10436,7 @@
         <v>25</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -10445,7 +10450,7 @@
         <v>469</v>
       </c>
       <c r="D362" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E362">
         <v>15950</v>
@@ -10463,7 +10468,7 @@
         <v>33</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -10477,7 +10482,7 @@
         <v>471</v>
       </c>
       <c r="D363" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E363">
         <v>17002</v>
@@ -10495,7 +10500,7 @@
         <v>11</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -10509,7 +10514,7 @@
         <v>472</v>
       </c>
       <c r="D364" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E364">
         <v>15701</v>
@@ -10527,7 +10532,7 @@
         <v>16</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -10541,7 +10546,7 @@
         <v>474</v>
       </c>
       <c r="D365" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E365">
         <v>10350</v>
@@ -10559,7 +10564,7 @@
         <v>11</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -10573,7 +10578,7 @@
         <v>475</v>
       </c>
       <c r="D366" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E366">
         <v>19601</v>
@@ -10591,7 +10596,7 @@
         <v>50</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -10605,7 +10610,7 @@
         <v>476</v>
       </c>
       <c r="D367" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E367">
         <v>19601</v>
@@ -10623,7 +10628,7 @@
         <v>50</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -10637,7 +10642,7 @@
         <v>478</v>
       </c>
       <c r="D368" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E368">
         <v>19605</v>
@@ -10655,7 +10660,7 @@
         <v>18</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -10669,7 +10674,7 @@
         <v>479</v>
       </c>
       <c r="D369" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E369">
         <v>12000</v>
@@ -10687,7 +10692,7 @@
         <v>34</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -10701,7 +10706,7 @@
         <v>480</v>
       </c>
       <c r="D370" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E370">
         <v>12000</v>
@@ -10719,7 +10724,7 @@
         <v>34</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -10733,7 +10738,7 @@
         <v>482</v>
       </c>
       <c r="D371" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E371">
         <v>14301</v>
@@ -10751,7 +10756,7 @@
         <v>11</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -10765,7 +10770,7 @@
         <v>485</v>
       </c>
       <c r="D372" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E372">
         <v>18050</v>
@@ -10783,7 +10788,7 @@
         <v>18</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -10797,7 +10802,7 @@
         <v>488</v>
       </c>
       <c r="D373" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E373">
         <v>15300</v>
@@ -10815,7 +10820,7 @@
         <v>59</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -10829,7 +10834,7 @@
         <v>489</v>
       </c>
       <c r="D374" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E374">
         <v>15300</v>
@@ -10847,7 +10852,7 @@
         <v>59</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -10861,7 +10866,7 @@
         <v>490</v>
       </c>
       <c r="D375" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E375">
         <v>19003</v>
@@ -10879,7 +10884,7 @@
         <v>14</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -10893,7 +10898,7 @@
         <v>491</v>
       </c>
       <c r="D376" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E376">
         <v>14000</v>
@@ -10911,7 +10916,7 @@
         <v>15</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -10925,7 +10930,7 @@
         <v>492</v>
       </c>
       <c r="D377" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E377">
         <v>11300</v>
@@ -10943,7 +10948,7 @@
         <v>20</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -10957,7 +10962,7 @@
         <v>493</v>
       </c>
       <c r="D378" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H378">
         <v>1</v>
@@ -10966,7 +10971,7 @@
         <v>50</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -10980,7 +10985,7 @@
         <v>494</v>
       </c>
       <c r="D379" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H379">
         <v>0</v>
@@ -10989,7 +10994,7 @@
         <v>50</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -11003,7 +11008,7 @@
         <v>495</v>
       </c>
       <c r="D380" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -11012,7 +11017,7 @@
         <v>50</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -11026,7 +11031,7 @@
         <v>496</v>
       </c>
       <c r="D381" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E381">
         <v>10801</v>
@@ -11044,7 +11049,7 @@
         <v>32</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -11058,7 +11063,7 @@
         <v>497</v>
       </c>
       <c r="D382" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H382">
         <v>1</v>
@@ -11067,7 +11072,7 @@
         <v>23</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -11081,7 +11086,7 @@
         <v>498</v>
       </c>
       <c r="D383" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H383">
         <v>1</v>
@@ -11090,7 +11095,7 @@
         <v>27</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -11104,7 +11109,7 @@
         <v>499</v>
       </c>
       <c r="D384" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H384">
         <v>1</v>
@@ -11113,7 +11118,7 @@
         <v>14</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
@@ -11127,7 +11132,7 @@
         <v>501</v>
       </c>
       <c r="D385" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E385">
         <v>19403</v>
@@ -11145,7 +11150,7 @@
         <v>17</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -11159,7 +11164,7 @@
         <v>503</v>
       </c>
       <c r="D386" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E386">
         <v>19453</v>
@@ -11177,7 +11182,7 @@
         <v>14</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -11191,7 +11196,7 @@
         <v>505</v>
       </c>
       <c r="D387" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E387">
         <v>10150</v>
@@ -11209,7 +11214,7 @@
         <v>50</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
@@ -11223,7 +11228,7 @@
         <v>509</v>
       </c>
       <c r="D388" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H388">
         <v>0</v>
@@ -11232,7 +11237,7 @@
         <v>9</v>
       </c>
       <c r="J388" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -11246,7 +11251,7 @@
         <v>510</v>
       </c>
       <c r="D389" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H389">
         <v>1</v>
@@ -11255,7 +11260,7 @@
         <v>30</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -11269,7 +11274,7 @@
         <v>512</v>
       </c>
       <c r="D390" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H390">
         <v>1</v>
@@ -11278,11 +11283,14 @@
         <v>19</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sortState ref="A2:J390">
+    <sortCondition ref="A99"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dataset_xlsx/symptoms2.xlsx
+++ b/Dataset_xlsx/symptoms2.xlsx
@@ -1212,16 +1212,16 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>Superiore</t>
-  </si>
-  <si>
-    <t>Generale</t>
-  </si>
-  <si>
-    <t>Inferiore</t>
-  </si>
-  <si>
     <t>cid</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>Gen</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1665,7 +1665,7 @@
         <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1697,7 +1697,7 @@
         <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1726,7 +1726,7 @@
         <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1827,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1946,7 +1946,7 @@
         <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1978,7 +1978,7 @@
         <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2007,7 +2007,7 @@
         <v>66</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2027,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2067,7 +2067,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2096,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
         <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2180,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2220,7 +2220,7 @@
         <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2249,7 +2249,7 @@
         <v>39</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2281,7 +2281,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2310,7 +2310,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2339,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2371,7 +2371,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2403,7 +2403,7 @@
         <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2432,7 +2432,7 @@
         <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
         <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2484,7 +2484,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2504,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2536,7 +2536,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2568,7 +2568,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2600,7 +2600,7 @@
         <v>75</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2632,7 +2632,7 @@
         <v>75</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2652,7 +2652,7 @@
         <v>18</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2684,7 +2684,7 @@
         <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2716,7 +2716,7 @@
         <v>39</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2748,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2768,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
         <v>47</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
         <v>47</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2925,7 +2925,7 @@
         <v>47</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2954,7 +2954,7 @@
         <v>47</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
         <v>35</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2994,7 +2994,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3023,7 +3023,7 @@
         <v>26</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3052,7 +3052,7 @@
         <v>26</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3081,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3101,7 +3101,7 @@
         <v>27</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3133,7 +3133,7 @@
         <v>32</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>45</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>18</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3229,7 +3229,7 @@
         <v>50</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -3249,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3281,7 +3281,7 @@
         <v>71</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
         <v>71</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3330,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3370,7 +3370,7 @@
         <v>25</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3390,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3410,7 +3410,7 @@
         <v>8</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3430,7 +3430,7 @@
         <v>16</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3450,7 +3450,7 @@
         <v>8</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3470,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3502,7 +3502,7 @@
         <v>21</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3531,7 +3531,7 @@
         <v>21</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3551,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3571,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3603,7 +3603,7 @@
         <v>26</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
         <v>39</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3655,7 +3655,7 @@
         <v>24</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3687,7 +3687,7 @@
         <v>25</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3716,7 +3716,7 @@
         <v>21</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3736,7 +3736,7 @@
         <v>17</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3768,7 +3768,7 @@
         <v>62</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3800,7 +3800,7 @@
         <v>27</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
         <v>27</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3849,7 +3849,7 @@
         <v>21</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3869,7 +3869,7 @@
         <v>17</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3889,7 +3889,7 @@
         <v>21</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3909,7 +3909,7 @@
         <v>21</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3929,7 +3929,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3958,7 +3958,7 @@
         <v>24</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>24</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -4010,7 +4010,7 @@
         <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4042,7 +4042,7 @@
         <v>56</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4074,7 +4074,7 @@
         <v>42</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>13</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>36</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4154,7 +4154,7 @@
         <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4203,7 +4203,7 @@
         <v>16</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4235,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4255,7 +4255,7 @@
         <v>15</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4287,7 +4287,7 @@
         <v>18</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4319,7 +4319,7 @@
         <v>19</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4348,7 +4348,7 @@
         <v>19</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4397,7 +4397,7 @@
         <v>9</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4429,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4449,7 +4449,7 @@
         <v>23</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4469,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4489,7 +4489,7 @@
         <v>25</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4509,7 +4509,7 @@
         <v>15</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4538,7 +4538,7 @@
         <v>62</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4570,7 +4570,7 @@
         <v>18</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4590,7 +4590,7 @@
         <v>7</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4619,7 +4619,7 @@
         <v>10</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4639,7 +4639,7 @@
         <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4668,7 +4668,7 @@
         <v>40</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4700,7 +4700,7 @@
         <v>75</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4732,7 +4732,7 @@
         <v>19</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4764,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -4784,7 +4784,7 @@
         <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -4804,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
         <v>32</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4856,7 +4856,7 @@
         <v>34</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -4879,7 +4879,7 @@
         <v>34</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -4899,7 +4899,7 @@
         <v>34</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -4919,7 +4919,7 @@
         <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -4948,7 +4948,7 @@
         <v>21</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -4968,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4988,7 +4988,7 @@
         <v>28</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
         <v>16</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5028,7 +5028,7 @@
         <v>19</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5048,7 +5048,7 @@
         <v>8</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5068,7 +5068,7 @@
         <v>8</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>9</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5108,7 +5108,7 @@
         <v>8</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5137,7 +5137,7 @@
         <v>29</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5166,7 +5166,7 @@
         <v>18</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5186,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5206,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5235,7 +5235,7 @@
         <v>20</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5255,7 +5255,7 @@
         <v>5</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5275,7 +5275,7 @@
         <v>11</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -5295,7 +5295,7 @@
         <v>19</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5315,7 +5315,7 @@
         <v>19</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5344,7 +5344,7 @@
         <v>56</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -5373,7 +5373,7 @@
         <v>56</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>59</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -5437,7 +5437,7 @@
         <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -5457,7 +5457,7 @@
         <v>26</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -5489,7 +5489,7 @@
         <v>50</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -5509,7 +5509,7 @@
         <v>19</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -5538,7 +5538,7 @@
         <v>29</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -5570,7 +5570,7 @@
         <v>34</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -5590,7 +5590,7 @@
         <v>35</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -5622,7 +5622,7 @@
         <v>47</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -5654,7 +5654,7 @@
         <v>10</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -5683,7 +5683,7 @@
         <v>29</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -5703,7 +5703,7 @@
         <v>7</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -5723,7 +5723,7 @@
         <v>16</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -5755,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -5775,7 +5775,7 @@
         <v>16</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -5795,7 +5795,7 @@
         <v>13</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -5827,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -5847,7 +5847,7 @@
         <v>29</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -5876,7 +5876,7 @@
         <v>16</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -5896,7 +5896,7 @@
         <v>13</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -5916,7 +5916,7 @@
         <v>19</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -5948,7 +5948,7 @@
         <v>16</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -5968,7 +5968,7 @@
         <v>15</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -5988,7 +5988,7 @@
         <v>12</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -6008,7 +6008,7 @@
         <v>6</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -6028,7 +6028,7 @@
         <v>8</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -6057,7 +6057,7 @@
         <v>26</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>17</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -6097,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -6117,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -6137,7 +6137,7 @@
         <v>14</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -6157,7 +6157,7 @@
         <v>9</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -6177,7 +6177,7 @@
         <v>10</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -6217,7 +6217,7 @@
         <v>18</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -6237,7 +6237,7 @@
         <v>8</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -6257,7 +6257,7 @@
         <v>13</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
         <v>24</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -6297,7 +6297,7 @@
         <v>24</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>24</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
         <v>24</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -6357,7 +6357,7 @@
         <v>34</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -6377,7 +6377,7 @@
         <v>11</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -6406,7 +6406,7 @@
         <v>56</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -6426,7 +6426,7 @@
         <v>27</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -6446,7 +6446,7 @@
         <v>16</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -6466,7 +6466,7 @@
         <v>16</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -6486,7 +6486,7 @@
         <v>22</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -6506,7 +6506,7 @@
         <v>30</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -6526,7 +6526,7 @@
         <v>13</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -6546,7 +6546,7 @@
         <v>28</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -6566,7 +6566,7 @@
         <v>17</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -6586,7 +6586,7 @@
         <v>16</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -6606,7 +6606,7 @@
         <v>21</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -6626,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -6646,7 +6646,7 @@
         <v>10</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -6666,7 +6666,7 @@
         <v>16</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -6686,7 +6686,7 @@
         <v>4</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -6706,7 +6706,7 @@
         <v>16</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -6726,7 +6726,7 @@
         <v>17</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -6746,7 +6746,7 @@
         <v>16</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -6766,7 +6766,7 @@
         <v>30</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -6786,7 +6786,7 @@
         <v>18</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -6806,7 +6806,7 @@
         <v>18</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
         <v>30</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -6846,7 +6846,7 @@
         <v>30</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -6866,7 +6866,7 @@
         <v>30</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -6886,7 +6886,7 @@
         <v>8</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -6906,7 +6906,7 @@
         <v>19</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -6926,7 +6926,7 @@
         <v>19</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -6946,7 +6946,7 @@
         <v>19</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -6966,7 +6966,7 @@
         <v>12</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -6986,7 +6986,7 @@
         <v>12</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -7006,7 +7006,7 @@
         <v>14</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -7026,7 +7026,7 @@
         <v>14</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -7046,7 +7046,7 @@
         <v>14</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -7066,7 +7066,7 @@
         <v>14</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -7086,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -7106,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -7126,7 +7126,7 @@
         <v>13</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -7155,7 +7155,7 @@
         <v>27</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -7175,7 +7175,7 @@
         <v>22</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -7195,7 +7195,7 @@
         <v>22</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -7215,7 +7215,7 @@
         <v>8</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -7235,7 +7235,7 @@
         <v>8</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -7255,7 +7255,7 @@
         <v>5</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -7284,7 +7284,7 @@
         <v>18</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -7313,7 +7313,7 @@
         <v>18</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -7333,7 +7333,7 @@
         <v>5</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -7353,7 +7353,7 @@
         <v>19</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -7373,7 +7373,7 @@
         <v>27</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -7393,7 +7393,7 @@
         <v>27</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -7425,7 +7425,7 @@
         <v>15</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -7445,7 +7445,7 @@
         <v>10</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -7465,7 +7465,7 @@
         <v>16</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -7494,7 +7494,7 @@
         <v>26</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -7514,7 +7514,7 @@
         <v>21</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -7534,7 +7534,7 @@
         <v>21</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -7563,7 +7563,7 @@
         <v>24</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -7583,7 +7583,7 @@
         <v>12</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -7603,7 +7603,7 @@
         <v>8</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -7635,7 +7635,7 @@
         <v>21</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -7667,7 +7667,7 @@
         <v>29</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -7696,7 +7696,7 @@
         <v>56</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -7725,7 +7725,7 @@
         <v>59</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -7754,7 +7754,7 @@
         <v>19</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -7777,7 +7777,7 @@
         <v>9</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -7797,7 +7797,7 @@
         <v>11</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -7817,7 +7817,7 @@
         <v>11</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -7837,7 +7837,7 @@
         <v>11</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -7857,7 +7857,7 @@
         <v>11</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -7880,7 +7880,7 @@
         <v>13</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -7903,7 +7903,7 @@
         <v>21</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -7923,7 +7923,7 @@
         <v>15</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -7943,7 +7943,7 @@
         <v>15</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -7963,7 +7963,7 @@
         <v>15</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -7983,7 +7983,7 @@
         <v>11</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -8003,7 +8003,7 @@
         <v>11</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -8023,7 +8023,7 @@
         <v>11</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -8043,7 +8043,7 @@
         <v>29</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -8063,7 +8063,7 @@
         <v>29</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -8083,7 +8083,7 @@
         <v>9</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -8112,7 +8112,7 @@
         <v>19</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -8141,7 +8141,7 @@
         <v>19</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -8170,7 +8170,7 @@
         <v>19</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -8190,7 +8190,7 @@
         <v>13</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -8210,7 +8210,7 @@
         <v>13</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -8230,7 +8230,7 @@
         <v>6</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -8262,7 +8262,7 @@
         <v>75</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -8294,7 +8294,7 @@
         <v>16</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -8323,7 +8323,7 @@
         <v>19</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -8355,7 +8355,7 @@
         <v>19</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -8375,7 +8375,7 @@
         <v>7</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -8404,7 +8404,7 @@
         <v>18</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -8424,7 +8424,7 @@
         <v>15</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -8453,7 +8453,7 @@
         <v>16</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -8473,7 +8473,7 @@
         <v>18</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -8493,7 +8493,7 @@
         <v>7</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -8513,7 +8513,7 @@
         <v>7</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -8533,7 +8533,7 @@
         <v>7</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -8553,7 +8553,7 @@
         <v>7</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -8573,7 +8573,7 @@
         <v>27</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -8593,7 +8593,7 @@
         <v>36</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -8613,7 +8613,7 @@
         <v>40</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -8633,7 +8633,7 @@
         <v>36</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -8653,7 +8653,7 @@
         <v>37</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -8673,7 +8673,7 @@
         <v>29</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -8693,7 +8693,7 @@
         <v>29</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -8713,7 +8713,7 @@
         <v>10</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -8733,7 +8733,7 @@
         <v>26</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -8753,7 +8753,7 @@
         <v>26</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -8773,7 +8773,7 @@
         <v>16</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -8793,7 +8793,7 @@
         <v>16</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -8813,7 +8813,7 @@
         <v>17</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -8842,7 +8842,7 @@
         <v>15</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -8871,7 +8871,7 @@
         <v>15</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -8891,7 +8891,7 @@
         <v>14</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -8920,7 +8920,7 @@
         <v>63</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -8949,7 +8949,7 @@
         <v>63</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -8969,7 +8969,7 @@
         <v>29</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -8989,7 +8989,7 @@
         <v>31</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -9009,7 +9009,7 @@
         <v>31</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -9029,7 +9029,7 @@
         <v>26</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -9049,7 +9049,7 @@
         <v>26</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -9069,7 +9069,7 @@
         <v>26</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -9089,7 +9089,7 @@
         <v>13</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -9109,7 +9109,7 @@
         <v>4</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -9129,7 +9129,7 @@
         <v>10</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -9149,7 +9149,7 @@
         <v>17</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -9169,7 +9169,7 @@
         <v>14</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -9189,7 +9189,7 @@
         <v>10</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -9209,7 +9209,7 @@
         <v>10</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -9229,7 +9229,7 @@
         <v>7</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -9249,7 +9249,7 @@
         <v>8</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -9269,7 +9269,7 @@
         <v>12</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
@@ -9289,7 +9289,7 @@
         <v>5</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
@@ -9318,7 +9318,7 @@
         <v>7</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -9338,7 +9338,7 @@
         <v>15</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
@@ -9358,7 +9358,7 @@
         <v>15</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
@@ -9390,7 +9390,7 @@
         <v>11</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -9410,7 +9410,7 @@
         <v>21</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -9439,7 +9439,7 @@
         <v>56</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -9459,7 +9459,7 @@
         <v>10</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -9488,7 +9488,7 @@
         <v>15</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -9508,7 +9508,7 @@
         <v>5</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -9540,7 +9540,7 @@
         <v>16</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -9572,7 +9572,7 @@
         <v>63</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
@@ -9604,7 +9604,7 @@
         <v>39</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
@@ -9636,7 +9636,7 @@
         <v>19</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -9668,7 +9668,7 @@
         <v>84</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -9700,7 +9700,7 @@
         <v>18</v>
       </c>
       <c r="J338" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -9732,7 +9732,7 @@
         <v>72</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -9764,7 +9764,7 @@
         <v>29</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -9796,7 +9796,7 @@
         <v>29</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -9828,7 +9828,7 @@
         <v>50</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -9860,7 +9860,7 @@
         <v>11</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -9892,7 +9892,7 @@
         <v>11</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -9924,7 +9924,7 @@
         <v>62</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -9956,7 +9956,7 @@
         <v>27</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -9988,7 +9988,7 @@
         <v>17</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -10020,7 +10020,7 @@
         <v>24</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -10052,7 +10052,7 @@
         <v>24</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -10084,7 +10084,7 @@
         <v>9</v>
       </c>
       <c r="J350" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -10116,7 +10116,7 @@
         <v>15</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -10148,7 +10148,7 @@
         <v>17</v>
       </c>
       <c r="J352" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -10180,7 +10180,7 @@
         <v>75</v>
       </c>
       <c r="J353" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -10212,7 +10212,7 @@
         <v>16</v>
       </c>
       <c r="J354" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -10244,7 +10244,7 @@
         <v>36</v>
       </c>
       <c r="J355" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -10276,7 +10276,7 @@
         <v>36</v>
       </c>
       <c r="J356" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -10308,7 +10308,7 @@
         <v>6</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -10340,7 +10340,7 @@
         <v>55</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -10372,7 +10372,7 @@
         <v>40</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -10404,7 +10404,7 @@
         <v>57</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -10436,7 +10436,7 @@
         <v>25</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -10468,7 +10468,7 @@
         <v>33</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -10500,7 +10500,7 @@
         <v>11</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -10532,7 +10532,7 @@
         <v>16</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -10564,7 +10564,7 @@
         <v>11</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -10596,7 +10596,7 @@
         <v>50</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -10628,7 +10628,7 @@
         <v>50</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -10660,7 +10660,7 @@
         <v>18</v>
       </c>
       <c r="J368" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -10692,7 +10692,7 @@
         <v>34</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -10724,7 +10724,7 @@
         <v>34</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -10756,7 +10756,7 @@
         <v>11</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -10788,7 +10788,7 @@
         <v>18</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -10820,7 +10820,7 @@
         <v>59</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -10852,7 +10852,7 @@
         <v>59</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -10884,7 +10884,7 @@
         <v>14</v>
       </c>
       <c r="J375" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -10916,7 +10916,7 @@
         <v>15</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -10948,7 +10948,7 @@
         <v>20</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -10971,7 +10971,7 @@
         <v>50</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -10994,7 +10994,7 @@
         <v>50</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -11017,7 +11017,7 @@
         <v>50</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -11049,7 +11049,7 @@
         <v>32</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -11072,7 +11072,7 @@
         <v>23</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -11095,7 +11095,7 @@
         <v>27</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -11118,7 +11118,7 @@
         <v>14</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
@@ -11150,7 +11150,7 @@
         <v>17</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
@@ -11182,7 +11182,7 @@
         <v>14</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
@@ -11214,7 +11214,7 @@
         <v>50</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
@@ -11237,7 +11237,7 @@
         <v>9</v>
       </c>
       <c r="J388" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
@@ -11260,7 +11260,7 @@
         <v>30</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
@@ -11283,7 +11283,7 @@
         <v>19</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
